--- a/longest-run-growth.xlsx
+++ b/longest-run-growth.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Longest-Run Global Growth</t>
   </si>
   <si>
-    <t>Longest-Run Global Economic Growth</t>
+    <t>Longest-Run Global Economic Growth (2020)</t>
   </si>
   <si>
     <t>Longest-Run Global Growth - Lon</t>
@@ -43,25 +43,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Rate of Ideas-Stock Growth h</t>
+    <t>ideas Level H</t>
+  </si>
+  <si>
+    <t>Total Real World Income Y (billions)</t>
+  </si>
+  <si>
+    <t>Average Real Income per Capita y (per year)</t>
+  </si>
+  <si>
+    <t>Total Human Population L (millions)</t>
+  </si>
+  <si>
+    <t>Rate of Population and Labor Force Growth n</t>
   </si>
   <si>
     <t>Rate of Efficiency-of-Labor Growth g</t>
   </si>
   <si>
-    <t>Rate of Population and Labor Force Growth n</t>
-  </si>
-  <si>
-    <t>Average Real Income per Capita y (per year)</t>
-  </si>
-  <si>
-    <t>Total Real World Income Y (billions)</t>
-  </si>
-  <si>
-    <t>Total Human Population L (millions)</t>
-  </si>
-  <si>
-    <t>ideas Level H</t>
+    <t>Rate of Ideas-Stock Growth h</t>
   </si>
   <si>
     <t>How Much Economic History in This Era? (trillions)</t>
@@ -115,22 +115,28 @@
     <t>Party like its 2099…</t>
   </si>
   <si>
-    <t>H(-48000)</t>
+    <t>R =</t>
   </si>
   <si>
-    <t>E(-48000)</t>
-  </si>
-  <si>
-    <t>R =</t>
+    <t>Global resources stock…</t>
   </si>
   <si>
     <t>K/Y =</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha = </t>
+    <t>Steady-state capital-output ratio</t>
   </si>
   <si>
-    <t>gamma =</t>
+    <t xml:space="preserve">⍺ = </t>
+  </si>
+  <si>
+    <t>Salience of capital vs. labor efficiency in driving output per worker</t>
+  </si>
+  <si>
+    <t>ɣ =</t>
+  </si>
+  <si>
+    <t>Salience of ideas vs. resources in driving labor efficiency</t>
   </si>
   <si>
     <r>
@@ -141,7 +147,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>https://www.icloud.com/numbers/0Y0FpX-xky2r4_BwNZ-iJPbew</t>
+      <t>https://www.icloud.com/numbers/0PzSnM3eWgKrIpjR7Un8kxeIg</t>
     </r>
   </si>
   <si>
@@ -161,6 +167,18 @@
   </si>
   <si>
     <t>Increasing Resources ρ</t>
+  </si>
+  <si>
+    <t>H(-48000)</t>
+  </si>
+  <si>
+    <t>E(-48000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha = </t>
+  </si>
+  <si>
+    <t>gamma =</t>
   </si>
   <si>
     <r>
@@ -298,9 +316,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.000%"/>
+    <numFmt numFmtId="59" formatCode="0.0"/>
     <numFmt numFmtId="60" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="61" formatCode="0.0"/>
+    <numFmt numFmtId="61" formatCode="0.000%"/>
     <numFmt numFmtId="62" formatCode="0.0000"/>
     <numFmt numFmtId="63" formatCode="&quot;$&quot;0"/>
     <numFmt numFmtId="64" formatCode="0.0000%"/>
@@ -309,7 +327,7 @@
     <numFmt numFmtId="67" formatCode="0.0##%"/>
     <numFmt numFmtId="68" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -333,7 +351,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="22"/>
+      <sz val="24"/>
       <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -376,12 +394,6 @@
     <font>
       <b val="1"/>
       <sz val="30"/>
-      <color indexed="12"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="24"/>
       <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -537,7 +549,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -575,10 +587,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -586,10 +595,10 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="61" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="62" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -614,10 +623,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -625,10 +631,10 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="62" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -658,7 +664,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -670,19 +676,10 @@
     <xf numFmtId="0" fontId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="65" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="65" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -736,13 +733,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="68" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2710,15 +2707,15 @@
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2726,15 +2723,15 @@
     <row r="14">
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2742,15 +2739,15 @@
     <row r="16">
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2758,15 +2755,15 @@
     <row r="18">
       <c r="B18" s="4"/>
       <c r="C18" t="s" s="4">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2774,10 +2771,10 @@
     <row r="20">
       <c r="B20" s="4"/>
       <c r="C20" t="s" s="4">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2809,14 +2806,13 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.46094" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.5391" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.5781" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.3125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.3125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="2.95312" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.4141" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.5156" style="6" customWidth="1"/>
+    <col min="4" max="5" width="11.6953" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.53125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.1953" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5391" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="6" customWidth="1"/>
     <col min="10" max="10" width="12.6484" style="6" customWidth="1"/>
     <col min="11" max="11" width="13.2344" style="6" customWidth="1"/>
     <col min="12" max="12" width="8.3125" style="6" customWidth="1"/>
@@ -2827,7 +2823,7 @@
     <col min="17" max="16384" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.35" customHeight="1">
+    <row r="1" ht="42.3" customHeight="1">
       <c r="A1" t="s" s="7">
         <v>5</v>
       </c>
@@ -2847,7 +2843,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" ht="80.25" customHeight="1">
+    <row r="2" ht="68.25" customHeight="1">
       <c r="A2" t="s" s="8">
         <v>7</v>
       </c>
@@ -2863,16 +2859,16 @@
       <c r="E2" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" s="9"/>
+      <c r="G2" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="H2" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="I2" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="I2" s="9"/>
       <c r="J2" s="10"/>
       <c r="K2" t="s" s="8">
         <v>15</v>
@@ -2893,902 +2889,901 @@
       <c r="A3" s="11">
         <v>-68000</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <f>E3*D3/1000</f>
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1200</v>
+      </c>
       <c r="E3" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="23">
+        <v>-8000</v>
+      </c>
+      <c r="B4" s="24">
+        <f>B3*EXP(I4*($A4-$A3))</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="25">
+        <f>E4*D4/1000</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="25">
         <v>1200</v>
       </c>
-      <c r="F3" s="14">
-        <f>G3*E3/1000</f>
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" t="s" s="21">
-        <v>19</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="24">
-        <v>-8000</v>
-      </c>
-      <c r="B4" s="25">
-        <f>C4+D4/$I$25</f>
+      <c r="E4" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28">
+        <f>LN(E4/E3)/($A4-$A3)</f>
+        <v>5.364793041447e-05</v>
+      </c>
+      <c r="H4" s="28">
+        <f>LN(D4/D3)/($A4-$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
+        <f>H4+G4/$F$25</f>
         <v>2.6823965207235e-05</v>
       </c>
-      <c r="C4" s="26">
-        <f>LN(E4/E3)/($A4-$A3)</f>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30">
+        <f>(C4+C3)*($A4-$A3)/2/1000</f>
+        <v>93.59999999999999</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34">
+        <f>LN(2)/G4</f>
+        <v>12920.2967422018</v>
+      </c>
+      <c r="P4" s="34">
+        <f>LN(2)/I4</f>
+        <v>25840.5934844036</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="23">
+        <v>-6000</v>
+      </c>
+      <c r="B5" s="24">
+        <f>B4*EXP(I5*($A5-$A4))</f>
+        <v>6.27495019900558</v>
+      </c>
+      <c r="C5" s="25">
+        <f>E5*D5/1000</f>
+        <v>6.3</v>
+      </c>
+      <c r="D5" s="25">
+        <v>900</v>
+      </c>
+      <c r="E5" s="26">
+        <v>7</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28">
+        <f>LN(E5/E4)/($A5-$A4)</f>
+        <v>0.000514809708590579</v>
+      </c>
+      <c r="H5" s="28">
+        <f>LN(D5/D4)/($A5-$A4)</f>
+        <v>-0.00014384103622589</v>
+      </c>
+      <c r="I5" s="28">
+        <f>H5+G5/$F$25</f>
+        <v>0.0001135638180694</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30">
+        <f>(C5+C4)*($A5-$A4)/2/1000</f>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="N5" s="27"/>
+      <c r="O5" s="34">
+        <f>LN(2)/G5</f>
+        <v>1346.414352708320</v>
+      </c>
+      <c r="P5" s="34">
+        <f>LN(2)/I5</f>
+        <v>6103.591727924790</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="23">
+        <v>-3000</v>
+      </c>
+      <c r="B6" s="24">
+        <f>B5*EXP(I6*($A6-$A5))</f>
+        <v>9.185586535436929</v>
+      </c>
+      <c r="C6" s="25">
+        <f>E6*D6/1000</f>
+        <v>13.5</v>
+      </c>
+      <c r="D6" s="25">
+        <v>900</v>
+      </c>
+      <c r="E6" s="26">
+        <v>15</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28">
+        <f>LN(E6/E5)/($A6-$A5)</f>
+        <v>0.000254046684015632</v>
+      </c>
+      <c r="H6" s="28">
+        <f>LN(D6/D5)/($A6-$A5)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="26">
-        <f>LN(G4/G3)/($A4-$A3)</f>
-        <v>5.364793041447e-05</v>
-      </c>
-      <c r="E4" s="27">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="27">
-        <f>G4*E4/1000</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="29">
-        <f>H3*EXP(B4*($A4-$A3))</f>
-        <v>5</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32">
-        <f>(F4+F3)*($A4-$A3)/2/1000</f>
-        <v>93.59999999999999</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="M4" t="s" s="34">
-        <v>20</v>
-      </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="36">
-        <f>LN(2)/D4</f>
-        <v>12920.2967422018</v>
-      </c>
-      <c r="P4" s="36">
-        <f>LN(2)/B4</f>
-        <v>25840.5934844036</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="24">
-        <v>-6000</v>
-      </c>
-      <c r="B5" s="25">
-        <f>C5+D5/$I$25</f>
-        <v>0.0001135638180694</v>
-      </c>
-      <c r="C5" s="26">
-        <f>LN(E5/E4)/($A5-$A4)</f>
-        <v>-0.00014384103622589</v>
-      </c>
-      <c r="D5" s="26">
-        <f>LN(G5/G4)/($A5-$A4)</f>
-        <v>0.000514809708590579</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="I6" s="28">
+        <f>H6+G6/$F$25</f>
+        <v>0.000127023342007816</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30">
+        <f>(C6+C4)*($A6-$A4)/2/1000</f>
+        <v>41.25</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="34">
+        <f>LN(2)/G6</f>
+        <v>2728.424436027260</v>
+      </c>
+      <c r="P6" s="34">
+        <f>LN(2)/I6</f>
+        <v>5456.848872054510</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="23">
+        <v>-1000</v>
+      </c>
+      <c r="B7" s="24">
+        <f>B6*EXP(I7*($A7-$A6))</f>
+        <v>16.7705098312484</v>
+      </c>
+      <c r="C7" s="25">
+        <f>E7*D7/1000</f>
+        <v>45</v>
+      </c>
+      <c r="D7" s="25">
+        <f>D6</f>
         <v>900</v>
       </c>
-      <c r="F5" s="27">
-        <f>G5*E5/1000</f>
-        <v>6.3</v>
-      </c>
-      <c r="G5" s="28">
-        <v>7</v>
-      </c>
-      <c r="H5" s="29">
-        <f>H4*EXP(B5*($A5-$A4))</f>
-        <v>6.27495019900558</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32">
-        <f>(F5+F4)*($A5-$A4)/2/1000</f>
-        <v>9.300000000000001</v>
-      </c>
-      <c r="L5" s="33"/>
-      <c r="M5" t="s" s="34">
-        <v>21</v>
-      </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="36">
-        <f>LN(2)/D5</f>
-        <v>1346.414352708320</v>
-      </c>
-      <c r="P5" s="36">
-        <f>LN(2)/B5</f>
-        <v>6103.591727924790</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="24">
-        <v>-3000</v>
-      </c>
-      <c r="B6" s="25">
-        <f>C6+D6/$I$25</f>
-        <v>0.000127023342007816</v>
-      </c>
-      <c r="C6" s="26">
-        <f>LN(E6/E5)/($A6-$A5)</f>
+      <c r="E7" s="26">
+        <v>50</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28">
+        <f>LN(E7/E6)/($A7-$A6)</f>
+        <v>0.000601986402162968</v>
+      </c>
+      <c r="H7" s="28">
+        <f>LN(D7/D6)/($A7-$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="26">
-        <f>LN(G6/G5)/($A6-$A5)</f>
-        <v>0.000254046684015632</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="I7" s="28">
+        <f>H7+G7/$F$25</f>
+        <v>0.000300993201081484</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30">
+        <f>(C7+C6)*($A7-$A6)/2/1000</f>
+        <v>58.5</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" t="s" s="35">
+        <v>23</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="34">
+        <f>LN(2)/G7</f>
+        <v>1151.433284986890</v>
+      </c>
+      <c r="P7" s="34">
+        <f>LN(2)/I7</f>
+        <v>2302.866569973780</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="23">
+        <v>0</v>
+      </c>
+      <c r="B8" s="24">
+        <f>B7*EXP(I8*($A8-$A7))</f>
+        <v>30.9232921921325</v>
+      </c>
+      <c r="C8" s="25">
+        <f>E8*D8/1000</f>
+        <v>153</v>
+      </c>
+      <c r="D8" s="25">
+        <f>D7</f>
         <v>900</v>
       </c>
-      <c r="F6" s="27">
-        <f>G6*E6/1000</f>
-        <v>13.5</v>
-      </c>
-      <c r="G6" s="28">
-        <v>15</v>
-      </c>
-      <c r="H6" s="29">
-        <f>H5*EXP(B6*($A6-$A5))</f>
-        <v>9.185586535436929</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32">
-        <f>(F6+F4)*($A6-$A4)/2/1000</f>
-        <v>41.25</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" t="s" s="37">
-        <v>22</v>
-      </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="36">
-        <f>LN(2)/D6</f>
-        <v>2728.424436027260</v>
-      </c>
-      <c r="P6" s="36">
-        <f>LN(2)/B6</f>
-        <v>5456.848872054510</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="24">
-        <v>-1000</v>
-      </c>
-      <c r="B7" s="25">
-        <f>C7+D7/$I$25</f>
-        <v>0.000300993201081484</v>
-      </c>
-      <c r="C7" s="26">
-        <f>LN(E7/E6)/($A7-$A6)</f>
+      <c r="E8" s="26">
+        <v>170</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28">
+        <f>LN(E8/E7)/($A8-$A7)</f>
+        <v>0.00122377543162212</v>
+      </c>
+      <c r="H8" s="28">
+        <f>LN(D8/D7)/($A8-$A7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="26">
-        <f>LN(G7/G6)/($A7-$A6)</f>
-        <v>0.000601986402162968</v>
-      </c>
-      <c r="E7" s="27">
-        <f>E6</f>
+      <c r="I8" s="28">
+        <f>H8+G8/$F$25</f>
+        <v>0.00061188771581106</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30">
+        <f>(C8+C7)*($A8-$A7)/2/1000</f>
+        <v>99</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34">
+        <f>LN(2)/G8</f>
+        <v>566.4006341761381</v>
+      </c>
+      <c r="P8" s="34">
+        <f>LN(2)/I8</f>
+        <v>1132.801268352280</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="23">
+        <v>800</v>
+      </c>
+      <c r="B9" s="24">
+        <f>B8*EXP(I9*($A9-$A8))</f>
+        <v>41.0791918128875</v>
+      </c>
+      <c r="C9" s="25">
+        <f>E9*D9/1000</f>
+        <v>270</v>
+      </c>
+      <c r="D9" s="25">
+        <f>D8</f>
         <v>900</v>
       </c>
-      <c r="F7" s="27">
-        <f>G7*E7/1000</f>
-        <v>45</v>
-      </c>
-      <c r="G7" s="28">
-        <v>50</v>
-      </c>
-      <c r="H7" s="29">
-        <f>H6*EXP(B7*($A7-$A6))</f>
-        <v>16.7705098312484</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32">
-        <f>(F7+F6)*($A7-$A6)/2/1000</f>
-        <v>58.5</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" t="s" s="37">
-        <v>23</v>
-      </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="36">
-        <f>LN(2)/D7</f>
-        <v>1151.433284986890</v>
-      </c>
-      <c r="P7" s="36">
-        <f>LN(2)/B7</f>
-        <v>2302.866569973780</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="24">
+      <c r="E9" s="26">
+        <v>300</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28">
+        <f>LN(E9/E8)/($A9-$A8)</f>
+        <v>0.000709980047007424</v>
+      </c>
+      <c r="H9" s="28">
+        <f>LN(D9/D8)/($A9-$A8)</f>
         <v>0</v>
       </c>
-      <c r="B8" s="25">
-        <f>C8+D8/$I$25</f>
-        <v>0.00061188771581106</v>
-      </c>
-      <c r="C8" s="26">
-        <f>LN(E8/E7)/($A8-$A7)</f>
+      <c r="I9" s="28">
+        <f>H9+G9/$F$25</f>
+        <v>0.000354990023503712</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30">
+        <f>(C9+C8)*($A9-$A8)/2/1000</f>
+        <v>169.2</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" t="s" s="32">
+        <v>25</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34">
+        <f>LN(2)/G9</f>
+        <v>976.291071110478</v>
+      </c>
+      <c r="P9" s="34">
+        <f>LN(2)/I9</f>
+        <v>1952.582142220960</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="23">
+        <v>1500</v>
+      </c>
+      <c r="B10" s="24">
+        <f>B9*EXP(I10*($A10-$A9))</f>
+        <v>53.0330085889911</v>
+      </c>
+      <c r="C10" s="25">
+        <f>E10*D10/1000</f>
+        <v>450</v>
+      </c>
+      <c r="D10" s="25">
+        <f>D9</f>
+        <v>900</v>
+      </c>
+      <c r="E10" s="26">
+        <v>500</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
+        <f>LN(E10/E9)/($A10-$A9)</f>
+        <v>0.000729750891094272</v>
+      </c>
+      <c r="H10" s="28">
+        <f>LN(D10/D9)/($A10-$A9)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="26">
-        <f>LN(G8/G7)/($A8-$A7)</f>
-        <v>0.00122377543162212</v>
-      </c>
-      <c r="E8" s="27">
-        <f>E7</f>
-        <v>900</v>
-      </c>
-      <c r="F8" s="27">
-        <f>G8*E8/1000</f>
-        <v>153</v>
-      </c>
-      <c r="G8" s="28">
-        <v>170</v>
-      </c>
-      <c r="H8" s="29">
-        <f>H7*EXP(B8*($A8-$A7))</f>
-        <v>30.9232921921325</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32">
-        <f>(F8+F7)*($A8-$A7)/2/1000</f>
-        <v>99</v>
-      </c>
-      <c r="L8" s="33"/>
-      <c r="M8" t="s" s="34">
-        <v>24</v>
-      </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36">
-        <f>LN(2)/D8</f>
-        <v>566.4006341761381</v>
-      </c>
-      <c r="P8" s="36">
-        <f>LN(2)/B8</f>
-        <v>1132.801268352280</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="24">
-        <v>800</v>
-      </c>
-      <c r="B9" s="25">
-        <f>C9+D9/$I$25</f>
-        <v>0.000354990023503712</v>
-      </c>
-      <c r="C9" s="26">
-        <f>LN(E9/E8)/($A9-$A8)</f>
+      <c r="I10" s="28">
+        <f>H10+G10/$F$25</f>
+        <v>0.000364875445547136</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30">
+        <f>(C10+C9)*($A10-$A9)/2/1000</f>
+        <v>252</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34">
+        <f>LN(2)/G10</f>
+        <v>949.840814199707</v>
+      </c>
+      <c r="P10" s="34">
+        <f>LN(2)/I10</f>
+        <v>1899.681628399410</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="23">
+        <v>1770</v>
+      </c>
+      <c r="B11" s="24">
+        <f>B10*EXP(I11*($A11-$A10))</f>
+        <v>79.38566201357349</v>
+      </c>
+      <c r="C11" s="25">
+        <f>E11*D11/1000</f>
+        <v>825</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1100</v>
+      </c>
+      <c r="E11" s="26">
+        <v>750</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28">
+        <f>LN(E11/E10)/($A11-$A10)</f>
+        <v>0.00150172262262283</v>
+      </c>
+      <c r="H11" s="28">
+        <f>LN(D11/D10)/($A11-$A10)</f>
+        <v>0.000743224798007968</v>
+      </c>
+      <c r="I11" s="28">
+        <f>H11+G11/$F$25</f>
+        <v>0.00149408610931938</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30">
+        <f>(C11+C10)*($A11-$A10)/2/1000</f>
+        <v>172.125</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34">
+        <f>LN(2)/G11</f>
+        <v>461.568048664893</v>
+      </c>
+      <c r="P11" s="34">
+        <f>LN(2)/I11</f>
+        <v>463.927196857284</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="23">
+        <v>1870</v>
+      </c>
+      <c r="B12" s="24">
+        <f>B11*EXP(I12*($A12-$A11))</f>
+        <v>123.519004385740</v>
+      </c>
+      <c r="C12" s="25">
+        <f>E12*D12/1000</f>
+        <v>1690</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
+        <f>LN(E12/E11)/($A12-$A11)</f>
+        <v>0.00550046336919272</v>
+      </c>
+      <c r="H12" s="28">
+        <f>LN(D12/D11)/($A12-$A11)</f>
+        <v>0.00167054084663166</v>
+      </c>
+      <c r="I12" s="28">
+        <f>H12+G12/$F$25</f>
+        <v>0.00442077253122802</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30">
+        <f>(C12+C11)*($A12-$A11)/2/1000</f>
+        <v>125.75</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" t="s" s="32">
+        <v>28</v>
+      </c>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34">
+        <f>LN(2)/G12</f>
+        <v>126.016143374785</v>
+      </c>
+      <c r="P12" s="34">
+        <f>LN(2)/I12</f>
+        <v>156.793224637459</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="23">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="24">
+        <f>B12*EXP(I13*($A13-$A12))</f>
+        <v>2720.535937912570</v>
+      </c>
+      <c r="C13" s="25">
+        <v>90000</v>
+      </c>
+      <c r="D13" s="25">
+        <f>C13/E13*1000</f>
+        <v>11842.1052631579</v>
+      </c>
+      <c r="E13" s="26">
+        <v>7600</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28">
+        <f>LN(E13/E12)/($A13-$A12)</f>
+        <v>0.011771893218832</v>
+      </c>
+      <c r="H13" s="28">
+        <f>LN(D13/D12)/($A13-$A12)</f>
+        <v>0.0147286477238033</v>
+      </c>
+      <c r="I13" s="28">
+        <f>H13+G13/$F$25</f>
+        <v>0.0206145943332193</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30">
+        <f>(C13+C12)*($A13-$A12)/2/1000</f>
+        <v>6876.75</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" t="s" s="32">
+        <v>29</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34">
+        <f>LN(2)/G13</f>
+        <v>58.8815382262462</v>
+      </c>
+      <c r="P13" s="34">
+        <f>LN(2)/I13</f>
+        <v>33.6240999631497</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="23">
+        <v>2100</v>
+      </c>
+      <c r="B14" s="24">
+        <f>EXP(I14*($A14-$A13))*B13</f>
+        <v>13474.9027122131</v>
+      </c>
+      <c r="C14" s="25">
+        <f>E14*D14/1000</f>
+        <v>485096.497639668</v>
+      </c>
+      <c r="D14" s="25">
+        <f>D13*EXP(H14*($A14-$A13))</f>
+        <v>53899.610848852</v>
+      </c>
+      <c r="E14" s="26">
+        <v>9000</v>
+      </c>
+      <c r="F14" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="G14" s="28">
+        <f>LN(E14/E13)/($A14-$A13)</f>
+        <v>0.00211345412554917</v>
+      </c>
+      <c r="H14" s="28">
+        <f>I14-G14/$F$25</f>
+        <v>0.0189432729372254</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30">
+        <f>(C14+C13)*($A14-$A13)/2/1000</f>
+        <v>23003.8599055867</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" t="s" s="32">
+        <v>31</v>
+      </c>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="23">
+        <v>2200</v>
+      </c>
+      <c r="B15" s="24">
+        <f>EXP(I15*($A15-$A14))*B14</f>
+        <v>99566.812068175394</v>
+      </c>
+      <c r="C15" s="25">
+        <f>E15*D15/1000</f>
+        <v>3584405.23445429</v>
+      </c>
+      <c r="D15" s="25">
+        <f>D14*EXP(H15*($A15-$A14))</f>
+        <v>398267.248272699</v>
+      </c>
+      <c r="E15" s="26">
+        <v>9000</v>
+      </c>
+      <c r="F15" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="G15" s="28">
+        <f>LN(E15/E14)/($A15-$A14)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
-        <f>LN(G9/G8)/($A9-$A8)</f>
-        <v>0.000709980047007424</v>
-      </c>
-      <c r="E9" s="27">
-        <f>E8</f>
-        <v>900</v>
-      </c>
-      <c r="F9" s="27">
-        <f>G9*E9/1000</f>
-        <v>270</v>
-      </c>
-      <c r="G9" s="28">
-        <v>300</v>
-      </c>
-      <c r="H9" s="29">
-        <f>H8*EXP(B9*($A9-$A8))</f>
-        <v>41.0791918128875</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32">
-        <f>(F9+F8)*($A9-$A8)/2/1000</f>
-        <v>169.2</v>
-      </c>
-      <c r="L9" s="33"/>
-      <c r="M9" t="s" s="34">
-        <v>25</v>
-      </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36">
-        <f>LN(2)/D9</f>
-        <v>976.291071110478</v>
-      </c>
-      <c r="P9" s="36">
-        <f>LN(2)/B9</f>
-        <v>1952.582142220960</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="24">
-        <v>1500</v>
-      </c>
-      <c r="B10" s="25">
-        <f>C10+D10/$I$25</f>
-        <v>0.000364875445547136</v>
-      </c>
-      <c r="C10" s="26">
-        <f>LN(E10/E9)/($A10-$A9)</f>
+      <c r="H15" s="28">
+        <f>I15-G15/$F$25</f>
+        <v>0.02</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30">
+        <f>(C15+C14)*($A15-$A14)/2/1000</f>
+        <v>203475.086604698</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="23">
+        <v>2500</v>
+      </c>
+      <c r="B16" s="24">
+        <f>EXP(I16*($A16-$A15))*B15</f>
+        <v>40168118.8645819</v>
+      </c>
+      <c r="C16" s="25">
+        <f>E16*D16/1000</f>
+        <v>1446052279.12494</v>
+      </c>
+      <c r="D16" s="25">
+        <f>D15*EXP(H16*($A16-$A15))</f>
+        <v>160672475.458327</v>
+      </c>
+      <c r="E16" s="26">
+        <v>9000</v>
+      </c>
+      <c r="F16" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="G16" s="28">
+        <f>LN(E16/E15)/($A16-$A15)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="26">
-        <f>LN(G10/G9)/($A10-$A9)</f>
-        <v>0.000729750891094272</v>
-      </c>
-      <c r="E10" s="27">
-        <f>E9</f>
-        <v>900</v>
-      </c>
-      <c r="F10" s="27">
-        <f>G10*E10/1000</f>
-        <v>450</v>
-      </c>
-      <c r="G10" s="28">
-        <v>500</v>
-      </c>
-      <c r="H10" s="29">
-        <f>H9*EXP(B10*($A10-$A9))</f>
-        <v>53.0330085889911</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32">
-        <f>(F10+F9)*($A10-$A9)/2/1000</f>
-        <v>252</v>
-      </c>
-      <c r="L10" s="33"/>
-      <c r="M10" t="s" s="34">
-        <v>26</v>
-      </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36">
-        <f>LN(2)/D10</f>
-        <v>949.840814199707</v>
-      </c>
-      <c r="P10" s="36">
-        <f>LN(2)/B10</f>
-        <v>1899.681628399410</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="24">
-        <v>1770</v>
-      </c>
-      <c r="B11" s="25">
-        <f>C11+D11/$I$25</f>
-        <v>0.00149408610931938</v>
-      </c>
-      <c r="C11" s="26">
-        <f>LN(E11/E10)/($A11-$A10)</f>
-        <v>0.000743224798007968</v>
-      </c>
-      <c r="D11" s="26">
-        <f>LN(G11/G10)/($A11-$A10)</f>
-        <v>0.00150172262262283</v>
-      </c>
-      <c r="E11" s="27">
-        <v>1100</v>
-      </c>
-      <c r="F11" s="27">
-        <f>G11*E11/1000</f>
-        <v>825</v>
-      </c>
-      <c r="G11" s="28">
-        <v>750</v>
-      </c>
-      <c r="H11" s="29">
-        <f>H10*EXP(B11*($A11-$A10))</f>
-        <v>79.38566201357349</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32">
-        <f>(F11+F10)*($A11-$A10)/2/1000</f>
-        <v>172.125</v>
-      </c>
-      <c r="L11" s="33"/>
-      <c r="M11" t="s" s="34">
-        <v>27</v>
-      </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36">
-        <f>LN(2)/D11</f>
-        <v>461.568048664893</v>
-      </c>
-      <c r="P11" s="36">
-        <f>LN(2)/B11</f>
-        <v>463.927196857284</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="24">
-        <v>1870</v>
-      </c>
-      <c r="B12" s="25">
-        <f>C12+D12/$I$25</f>
-        <v>0.00442077253122802</v>
-      </c>
-      <c r="C12" s="26">
-        <f>LN(E12/E11)/($A12-$A11)</f>
-        <v>0.00167054084663166</v>
-      </c>
-      <c r="D12" s="26">
-        <f>LN(G12/G11)/($A12-$A11)</f>
-        <v>0.00550046336919272</v>
-      </c>
-      <c r="E12" s="27">
-        <v>1300</v>
-      </c>
-      <c r="F12" s="27">
-        <f>G12*E12/1000</f>
-        <v>1690</v>
-      </c>
-      <c r="G12" s="28">
-        <v>1300</v>
-      </c>
-      <c r="H12" s="29">
-        <f>H11*EXP(B12*($A12-$A11))</f>
-        <v>123.519004385740</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32">
-        <f>(F12+F11)*($A12-$A11)/2/1000</f>
-        <v>125.75</v>
-      </c>
-      <c r="L12" s="33"/>
-      <c r="M12" t="s" s="34">
-        <v>28</v>
-      </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36">
-        <f>LN(2)/D12</f>
-        <v>126.016143374785</v>
-      </c>
-      <c r="P12" s="36">
-        <f>LN(2)/B12</f>
-        <v>156.793224637459</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="24">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="25">
-        <f>C13+D13/$I$25</f>
-        <v>0.0206145943332193</v>
-      </c>
-      <c r="C13" s="26">
-        <f>LN(E13/E12)/($A13-$A12)</f>
-        <v>0.0147286477238033</v>
-      </c>
-      <c r="D13" s="26">
-        <f>LN(G13/G12)/($A13-$A12)</f>
-        <v>0.011771893218832</v>
-      </c>
-      <c r="E13" s="27">
-        <f>F13/G13*1000</f>
-        <v>11842.1052631579</v>
-      </c>
-      <c r="F13" s="27">
-        <v>90000</v>
-      </c>
-      <c r="G13" s="28">
-        <v>7600</v>
-      </c>
-      <c r="H13" s="29">
-        <f>H12*EXP(B13*($A13-$A12))</f>
-        <v>2720.535937912570</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32">
-        <f>(F13+F12)*($A13-$A12)/2/1000</f>
-        <v>6876.75</v>
-      </c>
-      <c r="L13" s="33"/>
-      <c r="M13" t="s" s="34">
-        <v>29</v>
-      </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="36">
-        <f>LN(2)/D13</f>
-        <v>58.8815382262462</v>
-      </c>
-      <c r="P13" s="36">
-        <f>LN(2)/B13</f>
-        <v>33.6240999631497</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="24">
-        <v>2100</v>
-      </c>
-      <c r="B14" s="25">
+      <c r="H16" s="28">
+        <f>I16-G16/$F$25</f>
         <v>0.02</v>
       </c>
-      <c r="C14" s="26">
-        <f>B14-D14/$I$25</f>
-        <v>0.0189432729372254</v>
-      </c>
-      <c r="D14" s="26">
-        <f>LN(G14/G13)/($A14-$A13)</f>
-        <v>0.00211345412554917</v>
-      </c>
-      <c r="E14" s="27">
-        <f>E13*EXP(C14*($A14-$A13))</f>
-        <v>53899.610848852</v>
-      </c>
-      <c r="F14" s="27">
-        <f>G14*E14/1000</f>
-        <v>485096.497639668</v>
-      </c>
-      <c r="G14" s="28">
-        <v>9000</v>
-      </c>
-      <c r="H14" s="29">
-        <f>EXP(B14*($A14-$A13))*H13</f>
-        <v>13474.9027122131</v>
-      </c>
-      <c r="I14" t="s" s="37">
-        <v>30</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32">
-        <f>(F14+F13)*($A14-$A13)/2/1000</f>
-        <v>23003.8599055867</v>
-      </c>
-      <c r="L14" s="33"/>
-      <c r="M14" t="s" s="34">
-        <v>31</v>
-      </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="24">
-        <v>2200</v>
-      </c>
-      <c r="B15" s="25">
+      <c r="I16" s="28">
         <v>0.02</v>
       </c>
-      <c r="C15" s="26">
-        <f>B15-D15/$I$25</f>
-        <v>0.02</v>
-      </c>
-      <c r="D15" s="26">
-        <f>LN(G15/G14)/($A15-$A14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="27">
-        <f>E14*EXP(C15*($A15-$A14))</f>
-        <v>398267.248272699</v>
-      </c>
-      <c r="F15" s="27">
-        <f>G15*E15/1000</f>
-        <v>3584405.23445429</v>
-      </c>
-      <c r="G15" s="28">
-        <v>9000</v>
-      </c>
-      <c r="H15" s="29">
-        <f>EXP(B15*($A15-$A14))*H14</f>
-        <v>99566.812068175394</v>
-      </c>
-      <c r="I15" t="s" s="37">
-        <v>30</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32">
-        <f>(F15+F14)*($A15-$A14)/2/1000</f>
-        <v>203475.086604698</v>
-      </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="24">
-        <v>2500</v>
-      </c>
-      <c r="B16" s="25">
-        <v>0.02</v>
-      </c>
-      <c r="C16" s="26">
-        <f>B16-D16/$I$25</f>
-        <v>0.02</v>
-      </c>
-      <c r="D16" s="26">
-        <f>LN(G16/G15)/($A16-$A15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="27">
-        <f>E15*EXP(C16*($A16-$A15))</f>
-        <v>160672475.458327</v>
-      </c>
-      <c r="F16" s="27">
-        <f>G16*E16/1000</f>
-        <v>1446052279.12494</v>
-      </c>
-      <c r="G16" s="28">
-        <v>9000</v>
-      </c>
-      <c r="H16" s="29">
-        <f>EXP(B16*($A16-$A15))*H15</f>
-        <v>40168118.8645819</v>
-      </c>
-      <c r="I16" t="s" s="37">
-        <v>30</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32">
-        <f>(F16+F15)*($A16-$A15)/2/1000</f>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30">
+        <f>(C16+C15)*($A16-$A15)/2/1000</f>
         <v>217445502.653909</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-    </row>
-    <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="27"/>
-      <c r="F20" t="s" s="37">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" t="s" s="35">
         <v>32</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="28">
-        <f>I21^(4/3)</f>
-        <v>1574.901312368590</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" t="s" s="37">
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" t="s" s="35">
         <v>33</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="28">
-        <v>250</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" t="s" s="37">
+      <c r="N22" s="31"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" t="s" s="35">
         <v>34</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="28">
-        <v>1</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="27"/>
-      <c r="F23" t="s" s="37">
+      <c r="F23" s="26">
+        <v>4</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+      <c r="M23" t="s" s="35">
         <v>35</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="28">
-        <v>4</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" ht="20.25" customHeight="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" t="s" s="35">
+        <v>36</v>
+      </c>
+      <c r="D24" s="25"/>
       <c r="E24" s="27"/>
-      <c r="F24" t="s" s="37">
-        <v>36</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="28">
+      <c r="F24" s="26">
         <v>0.5</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="30"/>
-      <c r="F25" t="s" s="37">
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" t="s" s="35">
         <v>37</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="28">
+      <c r="N24" s="31"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26">
         <v>2</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="N25" s="31"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
     </row>
     <row r="27" ht="23" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" t="s" s="39">
+        <v>40</v>
+      </c>
       <c r="F27" s="27"/>
-      <c r="G27" t="s" s="41">
-        <v>38</v>
-      </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0Y0FpX-xky2r4_BwNZ-iJPbew"/>
+    <hyperlink ref="E27" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0PzSnM3eWgKrIpjR7Un8kxeIg"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3811,68 +3806,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.46094" style="42" customWidth="1"/>
-    <col min="2" max="2" width="13.4141" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15.5156" style="42" customWidth="1"/>
-    <col min="4" max="5" width="11.6953" style="42" customWidth="1"/>
-    <col min="6" max="6" width="5.39062" style="42" customWidth="1"/>
-    <col min="7" max="7" width="11.1953" style="42" customWidth="1"/>
-    <col min="8" max="8" width="10.5391" style="42" customWidth="1"/>
-    <col min="9" max="9" width="10.8203" style="42" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" style="42" customWidth="1"/>
-    <col min="11" max="17" width="12.6484" style="42" customWidth="1"/>
-    <col min="18" max="16384" width="16.3516" style="42" customWidth="1"/>
+    <col min="1" max="1" width="9.46094" style="40" customWidth="1"/>
+    <col min="2" max="2" width="13.4141" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15.5156" style="40" customWidth="1"/>
+    <col min="4" max="5" width="11.6953" style="40" customWidth="1"/>
+    <col min="6" max="6" width="5.39062" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.1953" style="40" customWidth="1"/>
+    <col min="8" max="8" width="10.5391" style="40" customWidth="1"/>
+    <col min="9" max="9" width="10.8203" style="40" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" style="40" customWidth="1"/>
+    <col min="11" max="17" width="12.6484" style="40" customWidth="1"/>
+    <col min="18" max="16384" width="16.3516" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37.4" customHeight="1">
-      <c r="A1" t="s" s="43">
-        <v>40</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+      <c r="A1" t="s" s="41">
+        <v>42</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
     </row>
     <row r="2" ht="68.25" customHeight="1">
       <c r="A2" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" t="s" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -3886,753 +3881,753 @@
       <c r="A3" s="11">
         <v>-68000</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="42">
         <f>E3*D3/1000</f>
         <v>0.006</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>1200</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0.005</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>-8000</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="24">
         <f>B3*EXP(J4*($A4-$A3))</f>
         <v>4.47213595499957</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="43">
         <f>E4*D4/1000</f>
         <v>0.12</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>1200</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <v>0.1</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="26">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28">
         <f>LN(E4/E3)/($A4-$A3)</f>
         <v>4.99288712258998e-05</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="28">
         <f>LN(D4/D3)/($A4-$A3)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="28">
         <v>0</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="28">
         <f>H4+G4/$F$22</f>
         <v>2.49644356129499e-05</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29">
         <f>LN(E3)</f>
         <v>-5.29831736654804</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="29">
         <f>LN(J4)</f>
         <v>-10.5980583213992</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>-6000</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="24">
         <f>B4*EXP(J5*($A5-$A4))</f>
         <v>4.74341649025256</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="43">
         <f>E5*D5/1000</f>
         <v>0.18</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>900</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>0.2</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="26">
+      <c r="F5" s="27"/>
+      <c r="G5" s="28">
         <f>LN(E5/E4)/($A5-$A4)</f>
         <v>0.000346573590279973</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="28">
         <f>LN(D5/D4)/($A5-$A4)</f>
         <v>-0.00014384103622589</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="28">
         <v>0</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="28">
         <f>H5+G5/$F$22</f>
         <v>2.94457589140965e-05</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31">
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29">
         <f>LN(E4)</f>
         <v>-2.30258509299405</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="29">
         <f>LN(J5)</f>
         <v>-10.4329606679452</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>-3000</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="24">
         <f>B5*EXP(J6*($A6-$A5))</f>
         <v>7.49999999999999</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="43">
         <f>E6*D6/1000</f>
         <v>0.45</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>900</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <v>0.5</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="26">
+      <c r="F6" s="27"/>
+      <c r="G6" s="28">
         <f>LN(E6/E5)/($A6-$A5)</f>
         <v>0.000305430243958052</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="28">
         <f>LN(D6/D5)/($A6-$A5)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="28">
         <v>0</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="28">
         <f>H6+G6/$F$22</f>
         <v>0.000152715121979026</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29">
         <f>LN(E5)</f>
         <v>-1.6094379124341</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="29">
         <f>LN(J6)</f>
         <v>-8.786936320000949</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>-1000</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="24">
         <f>B6*EXP(J7*($A7-$A6))</f>
         <v>15</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="43">
         <f>E7*D7/1000</f>
         <v>1.8</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <f>D6</f>
         <v>900</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>2</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="26">
+      <c r="F7" s="27"/>
+      <c r="G7" s="28">
         <f>LN(E7/E6)/($A7-$A6)</f>
         <v>0.000693147180559945</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="28">
         <f>LN(D7/D6)/($A7-$A6)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="28">
         <v>0</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="28">
         <f>H7+G7/$F$22</f>
         <v>0.000346573590279973</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29">
         <f>LN(E6)</f>
         <v>-0.693147180559945</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="29">
         <f>LN(J7)</f>
         <v>-7.96741538012375</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>0</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="24">
         <f>B7*EXP(J8*($A8-$A7))</f>
         <v>23.7170824512629</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="43">
         <f>E8*D8/1000</f>
         <v>4.5</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <f>D7</f>
         <v>900</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>5</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="26">
+      <c r="F8" s="27"/>
+      <c r="G8" s="28">
         <f>LN(E8/E7)/($A8-$A7)</f>
         <v>0.000916290731874155</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="28">
         <f>LN(D8/D7)/($A8-$A7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="28">
         <v>0</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="28">
         <f>H8+G8/$F$22</f>
         <v>0.000458145365937078</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29">
         <f>LN(E7)</f>
         <v>0.693147180559945</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="29">
         <f>LN(J8)</f>
         <v>-7.68832403133284</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>800</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="24">
         <f>B8*EXP(J9*($A9-$A8))</f>
         <v>30.0000000000001</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="43">
         <f>E9*D9/1000</f>
         <v>7.2</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <f>D8</f>
         <v>900</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <v>8</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="26">
+      <c r="F9" s="27"/>
+      <c r="G9" s="28">
         <f>LN(E9/E8)/($A9-$A8)</f>
         <v>0.00058750453655717</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="28">
         <f>LN(D9/D8)/($A9-$A8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="28">
         <v>0</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="28">
         <f>H9+G9/$F$22</f>
         <v>0.000293752268278585</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29">
         <f>LN(E8)</f>
         <v>1.6094379124341</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="29">
         <f>LN(J9)</f>
         <v>-8.13277377073628</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>1500</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="24">
         <f>B9*EXP(J10*($A10-$A9))</f>
         <v>58.9255650988791</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="43">
         <f>E10*D10/1000</f>
         <v>25</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>1000</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>25</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="26">
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
         <f>LN(E10/E9)/($A10-$A9)</f>
         <v>0.00162776326169766</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="28">
         <f>LN(D10/D9)/($A10-$A9)</f>
         <v>0.000150515022368323</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="28">
         <v>0</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="28">
         <f>H10+G10/$F$22</f>
         <v>0.000964396653217153</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29">
         <f>LN(E9)</f>
         <v>2.07944154167984</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="29">
         <f>LN(J10)</f>
         <v>-6.94400788198975</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>1770</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="24">
         <f>B10*EXP(J11*($A11-$A10))</f>
         <v>101.036297108185</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="43">
         <f>E11*D11/1000</f>
         <v>105</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>1400</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>75</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="26">
+      <c r="F11" s="27"/>
+      <c r="G11" s="28">
         <f>LN(E11/E10)/($A11-$A10)</f>
         <v>0.00406893440247448</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="28">
         <f>LN(D11/D10)/($A11-$A10)</f>
         <v>0.00124619346896746</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="28">
         <f>LN(2)/270</f>
         <v>0.00256721177985165</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="28">
         <f>H11+G11/$F$22-I11/$F$22</f>
         <v>0.00199705478027888</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31">
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29">
         <f>LN(E10)</f>
         <v>3.2188758248682</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="29">
         <f>LN(J11)</f>
         <v>-6.21608179363832</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>1870</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="24">
         <f>B11*EXP(J12*($A12-$A11))</f>
         <v>252.028804938085</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="43">
         <f>E12*D12/1000</f>
         <v>490</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>2800</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <v>175</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="26">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
         <f>LN(E12/E11)/($A12-$A11)</f>
         <v>0.00847297860387204</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="28">
         <f>LN(D12/D11)/($A12-$A11)</f>
         <v>0.00693147180559945</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="28">
         <f>LN(1.5)/100</f>
         <v>0.00405465108108164</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="28">
         <f>H12+G12/$F$22-I12/$F$22</f>
         <v>0.00914063556699465</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29">
         <f>LN(E11)</f>
         <v>4.31748811353631</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="29">
         <f>LN(J12)</f>
         <v>-4.69502535906334</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>2020</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="24">
         <f>B12*EXP(J13*($A13-$A12))</f>
         <v>8439.494725697239</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="43">
         <f>E13*D13/1000</f>
         <v>40000</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>50000</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>800</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="26">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28">
         <f>LN(E13/E12)/($A13-$A12)</f>
         <v>0.0101321716916294</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="28">
         <f>LN(D13/D12)/($A13-$A12)</f>
         <v>0.0192160239216466</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="28">
         <f>LN(1.3)/150</f>
         <v>0.00174909509644994</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="28">
         <f>H13+G13/$F$22-I13/$F$22</f>
         <v>0.0234075622192363</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31">
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29">
         <f>LN(E12)</f>
         <v>5.16478597392351</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="29">
         <f>LN(J13)</f>
         <v>-3.75469613706499</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="48"/>
-      <c r="C17" t="s" s="37">
-        <v>32</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="28">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" t="s" s="35">
+        <v>47</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26">
         <f>F18^(4/3)</f>
         <v>1574.901312368590</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="48"/>
-      <c r="C18" t="s" s="37">
-        <v>33</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="28">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" t="s" s="35">
+        <v>48</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26">
         <v>250</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="48"/>
-      <c r="C19" t="s" s="37">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26">
+        <v>1</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" t="s" s="35">
         <v>34</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="28">
-        <v>1</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="48"/>
-      <c r="C20" t="s" s="37">
-        <v>35</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28">
+      <c r="D20" s="25"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26">
         <v>4</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="48"/>
-      <c r="C21" t="s" s="37">
-        <v>36</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26">
         <v>0.5</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="48"/>
-      <c r="C22" t="s" s="37">
-        <v>37</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" t="s" s="35">
+        <v>50</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26">
         <v>2</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" ht="23" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="27"/>
-      <c r="E24" t="s" s="41">
-        <v>45</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="25"/>
+      <c r="E24" t="s" s="39">
+        <v>51</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4663,61 +4658,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.5156" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.4141" style="49" customWidth="1"/>
-    <col min="4" max="4" width="11.5469" style="49" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="11.5781" style="49" customWidth="1"/>
-    <col min="7" max="7" width="11.0312" style="49" customWidth="1"/>
-    <col min="8" max="8" width="11.0625" style="49" customWidth="1"/>
-    <col min="9" max="13" width="16.3516" style="49" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="49" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.5156" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.4141" style="44" customWidth="1"/>
+    <col min="4" max="4" width="11.5469" style="44" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="11.5781" style="44" customWidth="1"/>
+    <col min="7" max="7" width="11.0312" style="44" customWidth="1"/>
+    <col min="8" max="8" width="11.0625" style="44" customWidth="1"/>
+    <col min="9" max="13" width="16.3516" style="44" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.1" customHeight="1">
-      <c r="A1" t="s" s="50">
-        <v>46</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="A1" t="s" s="45">
+        <v>52</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" ht="68.25" customHeight="1">
       <c r="A2" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s" s="8">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" t="s" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" t="s" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" t="s" s="8">
@@ -4729,1036 +4724,1036 @@
       <c r="A3" s="11">
         <v>-48000</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1200</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <f>B3*C3/1000</f>
         <v>1.2</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" t="s" s="21">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>-8000</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="47">
         <v>3</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>1200</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <f>B4*C4/1000</f>
         <v>3.6</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="26">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
         <f>LN(B4/B3)/($A4-$A3)</f>
         <v>2.74653072167027e-05</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="28">
         <f>LN(C4/C3)/($A4-$A3)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <f>(F4/2+G4)</f>
         <v>1.37326536083514e-05</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32">
+      <c r="I4" s="29"/>
+      <c r="J4" s="30">
         <f>(D4+D3)*($A4-$A3)/2/1000</f>
         <v>96</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" t="s" s="34">
+      <c r="K4" s="31"/>
+      <c r="L4" t="s" s="32">
         <v>21</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>-3000</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="47">
         <v>15</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>900</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <f>B5*C5/1000</f>
         <v>13.5</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="26">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
         <f>LN(B5/B4)/($A5-$A4)</f>
         <v>0.00032188758248682</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="28">
         <f>LN(C5/C4)/($A5-$A4)</f>
         <v>-5.75364144903562e-05</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <f>(F5/2+G5)</f>
         <v>0.000103407376753054</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32">
+      <c r="I5" s="29"/>
+      <c r="J5" s="30">
         <f>(D5+D4)*($A5-$A4)/2/1000</f>
         <v>42.75</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" t="s" s="37">
+      <c r="K5" s="31"/>
+      <c r="L5" t="s" s="35">
         <v>22</v>
       </c>
-      <c r="M5" s="30"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" ht="17.8" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>-1000</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="47">
         <v>50</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>900</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <f>B6*C6/1000</f>
         <v>45</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="26">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
         <f>LN(B6/B5)/($A6-$A5)</f>
         <v>0.000601986402162968</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="28">
         <f>LN(C6/C5)/($A6-$A5)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="31">
         <f>(F6/2+G6)</f>
         <v>0.000300993201081484</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32">
+      <c r="I6" s="29"/>
+      <c r="J6" s="30">
         <f>(D6+D5)*($A6-$A5)/2/1000</f>
         <v>58.5</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" t="s" s="37">
+      <c r="K6" s="31"/>
+      <c r="L6" t="s" s="35">
         <v>23</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>0</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="47">
         <v>170</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>900</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <f>B7*C7/1000</f>
         <v>153</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="26">
+      <c r="E7" s="27"/>
+      <c r="F7" s="28">
         <f>LN(B7/B6)/($A7-$A6)</f>
         <v>0.00122377543162212</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="28">
         <f>LN(C7/C6)/($A7-$A6)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <f>(F7/2+G7)</f>
         <v>0.00061188771581106</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32">
+      <c r="I7" s="29"/>
+      <c r="J7" s="30">
         <f>(D7+D6)*($A7-$A6)/2/1000</f>
         <v>99</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" t="s" s="34">
+      <c r="K7" s="31"/>
+      <c r="L7" t="s" s="32">
         <v>24</v>
       </c>
-      <c r="M7" s="35"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>800</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="47">
         <v>300</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>900</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <f>B8*C8/1000</f>
         <v>270</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26">
+      <c r="E8" s="27"/>
+      <c r="F8" s="28">
         <f>LN(B8/B7)/($A8-$A7)</f>
         <v>0.000709980047007424</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="28">
         <f>LN(C8/C7)/($A8-$A7)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <f>(F8/2+G8)</f>
         <v>0.000354990023503712</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32">
+      <c r="I8" s="29"/>
+      <c r="J8" s="30">
         <f>(D8+D7)*($A8-$A7)/2/1000</f>
         <v>169.2</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" t="s" s="34">
+      <c r="K8" s="31"/>
+      <c r="L8" t="s" s="32">
         <v>25</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>1500</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="47">
         <v>500</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>900</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <f>B9*C9/1000</f>
         <v>450</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="26">
+      <c r="E9" s="27"/>
+      <c r="F9" s="28">
         <f>LN(B9/B8)/($A9-$A8)</f>
         <v>0.000729750891094272</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="28">
         <f>LN(C9/C8)/($A9-$A8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <f>(F9/2+G9)</f>
         <v>0.000364875445547136</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32">
+      <c r="I9" s="29"/>
+      <c r="J9" s="30">
         <f>(D9+D8)*($A9-$A8)/2/1000</f>
         <v>252</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" t="s" s="34">
+      <c r="K9" s="31"/>
+      <c r="L9" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>1770</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="48">
         <f>B9*EXP((($A10-$A9)*F10))</f>
         <v>608.582050271939</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>900</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <f>B10*C10/1000</f>
         <v>547.723845244745</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="26">
+      <c r="E10" s="27"/>
+      <c r="F10" s="28">
         <f>(H10-G10)*2</f>
         <v>0.000727865352341084</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="28">
         <f>LN(C10/C9)/($A10-$A9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <f>G22</f>
         <v>0.000363932676170542</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32">
+      <c r="I10" s="29"/>
+      <c r="J10" s="30">
         <f>(D10+D9)*($A10-$A9)/2/1000</f>
         <v>134.692719108041</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" t="s" s="34">
+      <c r="K10" s="31"/>
+      <c r="L10" t="s" s="32">
         <v>27</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>1870</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="48">
         <f>B10*EXP((($A11-$A10)*F11))</f>
         <v>654.530561568964</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>900</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <f>B11*C11/1000</f>
         <v>589.077505412068</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="26">
+      <c r="E11" s="27"/>
+      <c r="F11" s="28">
         <f>(H11-G11)*2</f>
         <v>0.000727865352341084</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="28">
         <f>LN(C11/C10)/($A11-$A10)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="31">
         <f>H10</f>
         <v>0.000363932676170542</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32">
+      <c r="I11" s="29"/>
+      <c r="J11" s="30">
         <f>(D11+D10)*($A11-$A10)/2/1000</f>
         <v>56.8400675328407</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" t="s" s="34">
+      <c r="K11" s="31"/>
+      <c r="L11" t="s" s="32">
         <v>28</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>2020</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="48">
         <f>B11*EXP((($A12-$A11)*F12))</f>
         <v>730.039090719492</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <v>900</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <f>B12*C12/1000</f>
         <v>657.035181647543</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="26">
+      <c r="E12" s="27"/>
+      <c r="F12" s="28">
         <f>(H12-G12)*2</f>
         <v>0.000727865352341084</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="28">
         <f>LN(C12/C11)/($A12-$A11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="31">
         <f>H11</f>
         <v>0.000363932676170542</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32">
+      <c r="I12" s="29"/>
+      <c r="J12" s="30">
         <f>(D12+D11)*($A12-$A11)/2/1000</f>
         <v>93.45845152947081</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" t="s" s="34">
+      <c r="K12" s="31"/>
+      <c r="L12" t="s" s="32">
         <v>29</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>2100</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="48">
         <f>B12*EXP((($A13-$A12)*F13))</f>
         <v>773.810730792665</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>900</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <f>B13*C13/1000</f>
         <v>696.429657713399</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="26">
+      <c r="E13" s="27"/>
+      <c r="F13" s="28">
         <f>(H13-G13)*2</f>
         <v>0.000727865352341084</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="28">
         <f>LN(C13/C12)/($A13-$A12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="31">
         <f>H12</f>
         <v>0.000363932676170542</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>2200</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="48">
         <f>B13*EXP((($A14-$A13)*F14))</f>
         <v>832.234161272907</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <v>900</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <f>B14*C14/1000</f>
         <v>749.0107451456161</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="26">
+      <c r="E14" s="27"/>
+      <c r="F14" s="28">
         <f>(H14-G14)*2</f>
         <v>0.000727865352341084</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="28">
         <f>LN(C14/C13)/($A14-$A13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="31">
         <f>H13</f>
         <v>0.000363932676170542</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" ht="68.05" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="54"/>
-      <c r="C18" t="s" s="55">
-        <v>49</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s" s="55">
-        <v>8</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28">
+      <c r="A18" s="37"/>
+      <c r="B18" s="49"/>
+      <c r="C18" t="s" s="50">
+        <v>55</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" t="s" s="50">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s" s="50">
+        <v>14</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="26">
         <v>1770</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="26">
         <v>1870</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <v>2018</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="26">
         <v>2100</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="26">
         <v>2200</v>
       </c>
     </row>
     <row r="19" ht="44.05" customHeight="1">
-      <c r="A19" t="s" s="56">
-        <v>52</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="27">
+      <c r="A19" t="s" s="51">
+        <v>58</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="25">
         <f>1200</f>
         <v>1200</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="57">
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="52">
         <f>$B$38*G19</f>
         <v>2e-06</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="52">
         <v>1e-06</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="56">
-        <v>53</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="27">
+      <c r="A20" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="25">
         <f>B29</f>
         <v>922.864201561407</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="26">
+      <c r="D20" s="25"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28">
         <f>$B$38*G20</f>
         <v>0.000254046684015632</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="28">
         <v>0.000127023342007816</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="56">
-        <v>54</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="27">
+      <c r="A21" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="25">
         <f>B30</f>
         <v>1009.8</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="58">
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="53">
         <f>$B$38*G21</f>
         <v>0.00122</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="53">
         <v>0.00061</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="56">
-        <v>55</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="27">
+      <c r="A22" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="25">
         <f>B31</f>
         <v>965.507881710698</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="26">
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28">
         <f>$B$38*G22</f>
         <v>0.000727865352341084</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="28">
         <f>(H9+H8+1.5*H7)/4.5</f>
         <v>0.000363932676170542</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" t="s" s="56">
-        <v>56</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="27">
+      <c r="A23" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="25">
         <f>B32</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="26">
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28">
         <f>$B$38*G23</f>
         <v>0.00298817221863876</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="28">
         <v>0.00149408610931938</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="28">
+      <c r="H23" s="31"/>
+      <c r="I23" s="26">
         <v>750</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="36">
         <f>I23*EXP($F23*(J18-I18)/2)</f>
         <v>870.860512341556</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <f>J23*EXP($F23*(K18-J18))</f>
         <v>1355.236566395420</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <f>K23*EXP($F23*(L18-K18))</f>
         <v>1731.531277937010</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="36">
         <f>L23*EXP($F23*(M18-L18))</f>
         <v>2334.559846146370</v>
       </c>
     </row>
     <row r="24" ht="32.05" customHeight="1">
-      <c r="A24" t="s" s="56">
-        <v>57</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="27">
+      <c r="A24" t="s" s="51">
+        <v>63</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="25">
         <f>B33</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="26">
+      <c r="D24" s="25"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28">
         <f>$B$38*G24</f>
         <v>0.00884154506245604</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="28">
         <v>0.00442077253122802</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28">
+      <c r="H24" s="31"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="26">
         <v>1300</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <f>J24*EXP($F24*(K18-J18)/2)</f>
         <v>2500.869819319750</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <f>K24*EXP($F24*(L18-K18))</f>
         <v>5163.658264120250</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="36">
         <f>L24*EXP($F24*(M18-L18))</f>
         <v>12500.8894834955</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="56">
-        <v>58</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="27">
+      <c r="A25" t="s" s="51">
+        <v>64</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="25">
         <f>B34</f>
         <v>4610.626979979470</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="26">
+      <c r="D25" s="25"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28">
         <f>$B$38*G25</f>
         <v>0.0412291886664386</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="28">
         <v>0.0206145943332193</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" t="s" s="37">
-        <v>59</v>
-      </c>
-      <c r="I26" s="38">
+      <c r="A26" s="37"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" t="s" s="35">
+        <v>65</v>
+      </c>
+      <c r="I26" s="36">
         <v>13363.0391183955</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="36">
         <f>I26*EXP($G23*(J18-I18))</f>
         <v>15516.4574574482</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <f>J26*EXP($G23*(K18-J18))</f>
         <v>19356.4554005704</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <f>K26*EXP($G23*(L18-K18))</f>
         <v>21879.3011570143</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="36">
         <f>L26*EXP($G23*(M18-L18))</f>
         <v>25405.0925536969</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" t="s" s="59">
-        <v>60</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" t="s" s="37">
-        <v>61</v>
-      </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="38">
+      <c r="A27" s="37"/>
+      <c r="B27" t="s" s="54">
+        <v>66</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" t="s" s="35">
+        <v>67</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="36">
         <v>23144.5005344326</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <f>J27*EXP($G24*(K18-J18))</f>
         <v>44524.140669071</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <f>K27*EXP($G24*(L18-K18))</f>
         <v>63977.7186459348</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="36">
         <f>L27*EXP($G24*(M18-L18))</f>
         <v>99545.231589372794</v>
       </c>
     </row>
     <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" t="s" s="60">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s" s="37">
-        <v>63</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" t="s" s="37">
-        <v>64</v>
-      </c>
-      <c r="I28" s="38">
+      <c r="A28" s="37"/>
+      <c r="B28" t="s" s="55">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s" s="35">
+        <v>69</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" t="s" s="35">
+        <v>70</v>
+      </c>
+      <c r="I28" s="36">
         <v>13363.0391183955</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="36">
         <v>23144.5005344326</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>764400.895818392</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="26">
         <f>K28*EXP($G25*(L18-K18))</f>
         <v>4144299.76987365</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="28">
         <f>L28*EXP($G25*(M18-L18))</f>
         <v>32563540.5330516</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="61">
+      <c r="A29" s="37"/>
+      <c r="B29" s="56">
         <f>$B$39*(C29/$B$37+1)</f>
         <v>922.864201561407</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="28">
         <f>F20</f>
         <v>0.000254046684015632</v>
       </c>
-      <c r="D29" t="s" s="37">
-        <v>65</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="D29" t="s" s="35">
+        <v>71</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="61">
+      <c r="A30" s="37"/>
+      <c r="B30" s="56">
         <f>$B$39*(C30/$B$37+1)</f>
         <v>1009.8</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="28">
         <f>F21</f>
         <v>0.00122</v>
       </c>
-      <c r="D30" t="s" s="37">
-        <v>66</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="D30" t="s" s="35">
+        <v>72</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="61">
+      <c r="A31" s="37"/>
+      <c r="B31" s="56">
         <f>$B$39*(C31/$B$37+1)</f>
         <v>965.507881710698</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="28">
         <f>F22</f>
         <v>0.000727865352341084</v>
       </c>
-      <c r="D31" t="s" s="37">
-        <v>67</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+      <c r="D31" t="s" s="35">
+        <v>73</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="61">
+      <c r="A32" s="37"/>
+      <c r="B32" s="56">
         <f>$B$39*(C32/$B$37+1)</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="28">
         <f>F23</f>
         <v>0.00298817221863876</v>
       </c>
-      <c r="D32" t="s" s="37">
-        <v>68</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="D32" t="s" s="35">
+        <v>74</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="61">
+      <c r="A33" s="37"/>
+      <c r="B33" s="56">
         <f>$B$39*(C33/$B$37+1)</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="28">
         <f>F24</f>
         <v>0.00884154506245604</v>
       </c>
-      <c r="D33" t="s" s="37">
-        <v>69</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="D33" t="s" s="35">
+        <v>75</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="61">
+      <c r="A34" s="37"/>
+      <c r="B34" s="56">
         <f>$B$39*(C34/$B$37+1)</f>
         <v>4610.626979979470</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="28">
         <f>F25</f>
         <v>0.0412291886664386</v>
       </c>
-      <c r="D34" t="s" s="37">
-        <v>70</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="D34" t="s" s="35">
+        <v>76</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="56">
-        <v>71</v>
-      </c>
-      <c r="B37" s="52">
+      <c r="A37" t="s" s="51">
+        <v>77</v>
+      </c>
+      <c r="B37" s="47">
         <v>0.01</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="56">
-        <v>72</v>
-      </c>
-      <c r="B38" s="52">
+      <c r="A38" t="s" s="51">
+        <v>78</v>
+      </c>
+      <c r="B38" s="47">
         <v>2</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="56">
-        <v>73</v>
-      </c>
-      <c r="B39" s="52">
+      <c r="A39" t="s" s="51">
+        <v>79</v>
+      </c>
+      <c r="B39" s="47">
         <v>900</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5785,57 +5780,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.8438" style="62" customWidth="1"/>
-    <col min="2" max="4" width="12.3203" style="62" customWidth="1"/>
-    <col min="5" max="5" width="3.54688" style="62" customWidth="1"/>
-    <col min="6" max="8" width="12.3203" style="62" customWidth="1"/>
-    <col min="9" max="13" width="16.3516" style="62" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="62" customWidth="1"/>
+    <col min="1" max="1" width="14.8438" style="57" customWidth="1"/>
+    <col min="2" max="4" width="12.3203" style="57" customWidth="1"/>
+    <col min="5" max="5" width="3.54688" style="57" customWidth="1"/>
+    <col min="6" max="8" width="12.3203" style="57" customWidth="1"/>
+    <col min="9" max="13" width="16.3516" style="57" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.1" customHeight="1">
-      <c r="A1" t="s" s="50">
-        <v>74</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="A1" t="s" s="45">
+        <v>80</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" ht="68.25" customHeight="1">
       <c r="A2" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s" s="8">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" t="s" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" t="s" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" t="s" s="8">
@@ -5847,1037 +5842,1037 @@
       <c r="A3" s="11">
         <v>-48000</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1200</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <f>B3*C3/1000</f>
         <v>1.2</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" t="s" s="21">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>-8000</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="47">
         <v>3</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>1200</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <f>B4*C4/1000</f>
         <v>3.6</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="26">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
         <f>LN(B4/B3)/($A4-$A3)</f>
         <v>2.74653072167027e-05</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="28">
         <f>LN(C4/C3)/($A4-$A3)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <f>(F4/2+G4)</f>
         <v>1.37326536083514e-05</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32">
+      <c r="I4" s="29"/>
+      <c r="J4" s="30">
         <f>(D4+D3)*($A4-$A3)/2/1000</f>
         <v>96</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" t="s" s="34">
+      <c r="K4" s="31"/>
+      <c r="L4" t="s" s="32">
         <v>21</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>-3000</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="47">
         <v>15</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>900</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <f>B5*C5/1000</f>
         <v>13.5</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="26">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
         <f>LN(B5/B4)/($A5-$A4)</f>
         <v>0.00032188758248682</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="28">
         <f>LN(C5/C4)/($A5-$A4)</f>
         <v>-5.75364144903562e-05</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <f>(F5/2+G5)</f>
         <v>0.000103407376753054</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32">
+      <c r="I5" s="29"/>
+      <c r="J5" s="30">
         <f>(D5+D4)*($A5-$A4)/2/1000</f>
         <v>42.75</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" t="s" s="37">
+      <c r="K5" s="31"/>
+      <c r="L5" t="s" s="35">
         <v>22</v>
       </c>
-      <c r="M5" s="30"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" ht="17.8" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>-1000</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="47">
         <v>50</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>900</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <f>B6*C6/1000</f>
         <v>45</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="26">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
         <f>LN(B6/B5)/($A6-$A5)</f>
         <v>0.000601986402162968</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="28">
         <f>LN(C6/C5)/($A6-$A5)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="31">
         <f>(F6/2+G6)</f>
         <v>0.000300993201081484</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32">
+      <c r="I6" s="29"/>
+      <c r="J6" s="30">
         <f>(D6+D5)*($A6-$A5)/2/1000</f>
         <v>58.5</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" t="s" s="37">
+      <c r="K6" s="31"/>
+      <c r="L6" t="s" s="35">
         <v>23</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>0</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="47">
         <v>170</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>900</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <f>B7*C7/1000</f>
         <v>153</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="26">
+      <c r="E7" s="27"/>
+      <c r="F7" s="28">
         <f>LN(B7/B6)/($A7-$A6)</f>
         <v>0.00122377543162212</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="28">
         <f>LN(C7/C6)/($A7-$A6)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <f>(F7/2+G7)</f>
         <v>0.00061188771581106</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32">
+      <c r="I7" s="29"/>
+      <c r="J7" s="30">
         <f>(D7+D6)*($A7-$A6)/2/1000</f>
         <v>99</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" t="s" s="34">
+      <c r="K7" s="31"/>
+      <c r="L7" t="s" s="32">
         <v>24</v>
       </c>
-      <c r="M7" s="35"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>800</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="47">
         <v>300</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>900</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <f>B8*C8/1000</f>
         <v>270</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26">
+      <c r="E8" s="27"/>
+      <c r="F8" s="28">
         <f>LN(B8/B7)/($A8-$A7)</f>
         <v>0.000709980047007424</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="28">
         <f>LN(C8/C7)/($A8-$A7)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <f>(F8/2+G8)</f>
         <v>0.000354990023503712</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32">
+      <c r="I8" s="29"/>
+      <c r="J8" s="30">
         <f>(D8+D7)*($A8-$A7)/2/1000</f>
         <v>169.2</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" t="s" s="34">
+      <c r="K8" s="31"/>
+      <c r="L8" t="s" s="32">
         <v>25</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>1500</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="47">
         <v>500</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>900</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <f>B9*C9/1000</f>
         <v>450</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="26">
+      <c r="E9" s="27"/>
+      <c r="F9" s="28">
         <f>LN(B9/B8)/($A9-$A8)</f>
         <v>0.000729750891094272</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="28">
         <f>LN(C9/C8)/($A9-$A8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <f>(F9/2+G9)</f>
         <v>0.000364875445547136</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32">
+      <c r="I9" s="29"/>
+      <c r="J9" s="30">
         <f>(D9+D8)*($A9-$A8)/2/1000</f>
         <v>252</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" t="s" s="34">
+      <c r="K9" s="31"/>
+      <c r="L9" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>1770</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="47">
         <v>750</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>1100</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <f>B10*C10/1000</f>
         <v>825</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="26">
+      <c r="E10" s="27"/>
+      <c r="F10" s="28">
         <f>LN(B10/B9)/($A10-$A9)</f>
         <v>0.00150172262262283</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="28">
         <f>LN(C10/C9)/($A10-$A9)</f>
         <v>0.000743224798007968</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <f>(F10/2+G10)</f>
         <v>0.00149408610931938</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32">
+      <c r="I10" s="29"/>
+      <c r="J10" s="30">
         <f>(D10+D9)*($A10-$A9)/2/1000</f>
         <v>172.125</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" t="s" s="34">
+      <c r="K10" s="31"/>
+      <c r="L10" t="s" s="32">
         <v>27</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>1870</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="48">
         <v>895.4</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <f>C23</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <f>B11*C11/1000</f>
         <v>1046.664846411220</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="26">
+      <c r="E11" s="27"/>
+      <c r="F11" s="28">
         <f>LN(B11/B10)/($A11-$A10)</f>
         <v>0.00177197339276509</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="28">
         <f>LN(C11/C10)/($A11-$A10)</f>
         <v>0.000607833255239309</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="31">
         <f>(F11/2+G11)</f>
         <v>0.00149381995162185</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32">
+      <c r="I11" s="29"/>
+      <c r="J11" s="30">
         <f>(D11+D10)*($A11-$A10)/2/1000</f>
         <v>93.583242320561</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" t="s" s="34">
+      <c r="K11" s="31"/>
+      <c r="L11" t="s" s="32">
         <v>28</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>2020</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="48">
         <f>EXP(($A12-$A11)*$F$23)*B11</f>
         <v>1401.7775356852</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <f>C11</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <f>B12*C12/1000</f>
         <v>1638.587524112860</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="26">
+      <c r="E12" s="27"/>
+      <c r="F12" s="28">
         <f>LN(B12/B11)/($A12-$A11)</f>
         <v>0.00298817221863874</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="28">
         <f>LN(C12/C11)/($A12-$A11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="31">
         <f>(F12/2+G12)</f>
         <v>0.00149408610931937</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32">
+      <c r="I12" s="29"/>
+      <c r="J12" s="30">
         <f>(D12+D11)*($A12-$A11)/2/1000</f>
         <v>201.393927789306</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" t="s" s="34">
+      <c r="K12" s="31"/>
+      <c r="L12" t="s" s="32">
         <v>29</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>2100</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="48">
         <f>EXP(($A13-$A12)*$F$23)*B12</f>
         <v>1780.323122122130</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <f>C12</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <f>B13*C13/1000</f>
         <v>2081.082898345220</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="26">
+      <c r="E13" s="27"/>
+      <c r="F13" s="28">
         <f>LN(B13/B12)/($A13-$A12)</f>
         <v>0.00298817221863879</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="28">
         <f>LN(C13/C12)/($A13-$A12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="31">
         <f>(F13/2+G13)</f>
         <v>0.0014940861093194</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>2200</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="48">
         <f>EXP(($A14-$A13)*$F$23)*B13</f>
         <v>2400.344092556130</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <f>C13</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <f>B14*C14/1000</f>
         <v>2805.847421230010</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="26">
+      <c r="E14" s="27"/>
+      <c r="F14" s="28">
         <f>LN(B14/B13)/($A14-$A13)</f>
         <v>0.00298817221863876</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="28">
         <f>LN(C14/C13)/($A14-$A13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="31">
         <f>(F14/2+G14)</f>
         <v>0.00149408610931938</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" ht="68.05" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="54"/>
-      <c r="C18" t="s" s="55">
-        <v>49</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s" s="55">
-        <v>8</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28">
+      <c r="A18" s="37"/>
+      <c r="B18" s="49"/>
+      <c r="C18" t="s" s="50">
+        <v>55</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" t="s" s="50">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s" s="50">
+        <v>14</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="26">
         <v>1770</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="26">
         <v>1870</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <v>2018</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="26">
         <v>2100</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="26">
         <v>2200</v>
       </c>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="56">
-        <v>52</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="27">
+      <c r="A19" t="s" s="51">
+        <v>58</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="25">
         <f>1200</f>
         <v>1200</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="57">
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="52">
         <f>$B$38*G19</f>
         <v>2e-06</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="52">
         <v>1e-06</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="56">
-        <v>53</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="27">
+      <c r="A20" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="25">
         <f>B29</f>
         <v>922.864201561407</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="26">
+      <c r="D20" s="25"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28">
         <f>$B$38*G20</f>
         <v>0.000254046684015632</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="28">
         <v>0.000127023342007816</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="56">
-        <v>54</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="27">
+      <c r="A21" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="25">
         <f>B30</f>
         <v>1009.8</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="58">
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="53">
         <f>$B$38*G21</f>
         <v>0.00122</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="53">
         <v>0.00061</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="56">
-        <v>55</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="27">
+      <c r="A22" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="25">
         <f>B31</f>
         <v>950.4</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="58">
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="53">
         <f>$B$38*G22</f>
         <v>0.00056</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="53">
         <v>0.00028</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" t="s" s="56">
-        <v>56</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="27">
+      <c r="A23" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="25">
         <f>B32</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="26">
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28">
         <f>$B$38*G23</f>
         <v>0.00298817221863876</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="28">
         <v>0.00149408610931938</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="28">
+      <c r="H23" s="31"/>
+      <c r="I23" s="26">
         <v>750</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="36">
         <f>I23*EXP($F23*(J18-I18)/2)</f>
         <v>870.860512341556</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <f>J23*EXP($F23*(K18-J18))</f>
         <v>1355.236566395420</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <f>K23*EXP($F23*(L18-K18))</f>
         <v>1731.531277937010</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="36">
         <f>L23*EXP($F23*(M18-L18))</f>
         <v>2334.559846146370</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="56">
-        <v>57</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="27">
+      <c r="A24" t="s" s="51">
+        <v>63</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="25">
         <f>B33</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="26">
+      <c r="D24" s="25"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28">
         <f>$B$38*G24</f>
         <v>0.00884154506245604</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="28">
         <v>0.00442077253122802</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28">
+      <c r="H24" s="31"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="26">
         <v>1300</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <f>J24*EXP($F24*(K18-J18)/2)</f>
         <v>2500.869819319750</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <f>K24*EXP($F24*(L18-K18))</f>
         <v>5163.658264120250</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="36">
         <f>L24*EXP($F24*(M18-L18))</f>
         <v>12500.8894834955</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="56">
-        <v>58</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="27">
+      <c r="A25" t="s" s="51">
+        <v>64</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="25">
         <f>B34</f>
         <v>4610.626979979470</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="26">
+      <c r="D25" s="25"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28">
         <f>$B$38*G25</f>
         <v>0.0412291886664386</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="28">
         <v>0.0206145943332193</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" t="s" s="37">
-        <v>59</v>
-      </c>
-      <c r="I26" s="38">
+      <c r="A26" s="37"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" t="s" s="35">
+        <v>65</v>
+      </c>
+      <c r="I26" s="36">
         <v>13363.0391183955</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="36">
         <f>I26*EXP($G23*(J18-I18))</f>
         <v>15516.4574574482</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <f>J26*EXP($G23*(K18-J18))</f>
         <v>19356.4554005704</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <f>K26*EXP($G23*(L18-K18))</f>
         <v>21879.3011570143</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="36">
         <f>L26*EXP($G23*(M18-L18))</f>
         <v>25405.0925536969</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" t="s" s="59">
-        <v>60</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" t="s" s="37">
-        <v>61</v>
-      </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="38">
+      <c r="A27" s="37"/>
+      <c r="B27" t="s" s="54">
+        <v>66</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" t="s" s="35">
+        <v>67</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="36">
         <v>23144.5005344326</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <f>J27*EXP($G24*(K18-J18))</f>
         <v>44524.140669071</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <f>K27*EXP($G24*(L18-K18))</f>
         <v>63977.7186459348</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="36">
         <f>L27*EXP($G24*(M18-L18))</f>
         <v>99545.231589372794</v>
       </c>
     </row>
     <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" t="s" s="60">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s" s="37">
-        <v>63</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" t="s" s="37">
-        <v>64</v>
-      </c>
-      <c r="I28" s="38">
+      <c r="A28" s="37"/>
+      <c r="B28" t="s" s="55">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s" s="35">
+        <v>69</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" t="s" s="35">
+        <v>70</v>
+      </c>
+      <c r="I28" s="36">
         <v>13363.0391183955</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="36">
         <v>23144.5005344326</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>764400.895818392</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="26">
         <f>K28*EXP($G25*(L18-K18))</f>
         <v>4144299.76987365</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="28">
         <f>L28*EXP($G25*(M18-L18))</f>
         <v>32563540.5330516</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="61">
+      <c r="A29" s="37"/>
+      <c r="B29" s="56">
         <f>$B$39*(C29/$B$37+1)</f>
         <v>922.864201561407</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="28">
         <f>F20</f>
         <v>0.000254046684015632</v>
       </c>
-      <c r="D29" t="s" s="37">
-        <v>65</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="D29" t="s" s="35">
+        <v>71</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="61">
+      <c r="A30" s="37"/>
+      <c r="B30" s="56">
         <f>$B$39*(C30/$B$37+1)</f>
         <v>1009.8</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="28">
         <f>F21</f>
         <v>0.00122</v>
       </c>
-      <c r="D30" t="s" s="37">
-        <v>66</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="D30" t="s" s="35">
+        <v>72</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="61">
+      <c r="A31" s="37"/>
+      <c r="B31" s="56">
         <f>$B$39*(C31/$B$37+1)</f>
         <v>950.4</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="28">
         <f>F22</f>
         <v>0.00056</v>
       </c>
-      <c r="D31" t="s" s="37">
-        <v>67</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+      <c r="D31" t="s" s="35">
+        <v>73</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="61">
+      <c r="A32" s="37"/>
+      <c r="B32" s="56">
         <f>$B$39*(C32/$B$37+1)</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="28">
         <f>F23</f>
         <v>0.00298817221863876</v>
       </c>
-      <c r="D32" t="s" s="37">
-        <v>68</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="D32" t="s" s="35">
+        <v>74</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="61">
+      <c r="A33" s="37"/>
+      <c r="B33" s="56">
         <f>$B$39*(C33/$B$37+1)</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="28">
         <f>F24</f>
         <v>0.00884154506245604</v>
       </c>
-      <c r="D33" t="s" s="37">
-        <v>69</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="D33" t="s" s="35">
+        <v>75</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="61">
+      <c r="A34" s="37"/>
+      <c r="B34" s="56">
         <f>$B$39*(C34/$B$37+1)</f>
         <v>4610.626979979470</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="28">
         <f>F25</f>
         <v>0.0412291886664386</v>
       </c>
-      <c r="D34" t="s" s="37">
-        <v>70</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="D34" t="s" s="35">
+        <v>76</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="56">
-        <v>71</v>
-      </c>
-      <c r="B37" s="52">
+      <c r="A37" t="s" s="51">
+        <v>77</v>
+      </c>
+      <c r="B37" s="47">
         <v>0.01</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="56">
-        <v>72</v>
-      </c>
-      <c r="B38" s="52">
+      <c r="A38" t="s" s="51">
+        <v>78</v>
+      </c>
+      <c r="B38" s="47">
         <v>2</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="56">
-        <v>73</v>
-      </c>
-      <c r="B39" s="52">
+      <c r="A39" t="s" s="51">
+        <v>79</v>
+      </c>
+      <c r="B39" s="47">
         <v>900</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6904,57 +6899,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.2344" style="63" customWidth="1"/>
-    <col min="2" max="4" width="10.9766" style="63" customWidth="1"/>
-    <col min="5" max="5" width="4.11719" style="63" customWidth="1"/>
-    <col min="6" max="8" width="10.9766" style="63" customWidth="1"/>
-    <col min="9" max="13" width="16.3516" style="63" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="63" customWidth="1"/>
+    <col min="1" max="1" width="13.2344" style="58" customWidth="1"/>
+    <col min="2" max="4" width="10.9766" style="58" customWidth="1"/>
+    <col min="5" max="5" width="4.11719" style="58" customWidth="1"/>
+    <col min="6" max="8" width="10.9766" style="58" customWidth="1"/>
+    <col min="9" max="13" width="16.3516" style="58" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="50.1" customHeight="1">
-      <c r="A1" t="s" s="50">
-        <v>76</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="A1" t="s" s="45">
+        <v>82</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" ht="68.25" customHeight="1">
       <c r="A2" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s" s="8">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" t="s" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" t="s" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" t="s" s="8">
@@ -6966,1036 +6961,1036 @@
       <c r="A3" s="11">
         <v>-48000</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="46">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1200</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <f>B3*C3/1000</f>
         <v>1.2</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" t="s" s="21">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>-8000</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="47">
         <v>3</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>1200</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <f>B4*C4/1000</f>
         <v>3.6</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="26">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
         <f>LN(B4/B3)/($A4-$A3)</f>
         <v>2.74653072167027e-05</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="28">
         <f>LN(C4/C3)/($A4-$A3)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <f>(F4/2+G4)</f>
         <v>1.37326536083514e-05</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32">
+      <c r="I4" s="29"/>
+      <c r="J4" s="30">
         <f>(D4+D3)*($A4-$A3)/2/1000</f>
         <v>96</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" t="s" s="34">
+      <c r="K4" s="31"/>
+      <c r="L4" t="s" s="32">
         <v>21</v>
       </c>
-      <c r="M4" s="35"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>-3000</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="47">
         <v>15</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>900</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <f>B5*C5/1000</f>
         <v>13.5</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="26">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28">
         <f>LN(B5/B4)/($A5-$A4)</f>
         <v>0.00032188758248682</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="28">
         <f>LN(C5/C4)/($A5-$A4)</f>
         <v>-5.75364144903562e-05</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <f>(F5/2+G5)</f>
         <v>0.000103407376753054</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32">
+      <c r="I5" s="29"/>
+      <c r="J5" s="30">
         <f>(D5+D4)*($A5-$A4)/2/1000</f>
         <v>42.75</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" t="s" s="37">
+      <c r="K5" s="31"/>
+      <c r="L5" t="s" s="35">
         <v>22</v>
       </c>
-      <c r="M5" s="30"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" ht="17.8" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>-1000</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="47">
         <v>50</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>900</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <f>B6*C6/1000</f>
         <v>45</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="26">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
         <f>LN(B6/B5)/($A6-$A5)</f>
         <v>0.000601986402162968</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="28">
         <f>LN(C6/C5)/($A6-$A5)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="31">
         <f>(F6/2+G6)</f>
         <v>0.000300993201081484</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32">
+      <c r="I6" s="29"/>
+      <c r="J6" s="30">
         <f>(D6+D5)*($A6-$A5)/2/1000</f>
         <v>58.5</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" t="s" s="37">
+      <c r="K6" s="31"/>
+      <c r="L6" t="s" s="35">
         <v>23</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>0</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="47">
         <v>170</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>900</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <f>B7*C7/1000</f>
         <v>153</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="26">
+      <c r="E7" s="27"/>
+      <c r="F7" s="28">
         <f>LN(B7/B6)/($A7-$A6)</f>
         <v>0.00122377543162212</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="28">
         <f>LN(C7/C6)/($A7-$A6)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <f>(F7/2+G7)</f>
         <v>0.00061188771581106</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32">
+      <c r="I7" s="29"/>
+      <c r="J7" s="30">
         <f>(D7+D6)*($A7-$A6)/2/1000</f>
         <v>99</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" t="s" s="34">
+      <c r="K7" s="31"/>
+      <c r="L7" t="s" s="32">
         <v>24</v>
       </c>
-      <c r="M7" s="35"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>800</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="47">
         <v>300</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>900</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <f>B8*C8/1000</f>
         <v>270</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26">
+      <c r="E8" s="27"/>
+      <c r="F8" s="28">
         <f>LN(B8/B7)/($A8-$A7)</f>
         <v>0.000709980047007424</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="28">
         <f>LN(C8/C7)/($A8-$A7)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <f>(F8/2+G8)</f>
         <v>0.000354990023503712</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32">
+      <c r="I8" s="29"/>
+      <c r="J8" s="30">
         <f>(D8+D7)*($A8-$A7)/2/1000</f>
         <v>169.2</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" t="s" s="34">
+      <c r="K8" s="31"/>
+      <c r="L8" t="s" s="32">
         <v>25</v>
       </c>
-      <c r="M8" s="35"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>1500</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="47">
         <v>500</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>900</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <f>B9*C9/1000</f>
         <v>450</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="26">
+      <c r="E9" s="27"/>
+      <c r="F9" s="28">
         <f>LN(B9/B8)/($A9-$A8)</f>
         <v>0.000729750891094272</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="28">
         <f>LN(C9/C8)/($A9-$A8)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <f>(F9/2+G9)</f>
         <v>0.000364875445547136</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32">
+      <c r="I9" s="29"/>
+      <c r="J9" s="30">
         <f>(D9+D8)*($A9-$A8)/2/1000</f>
         <v>252</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" t="s" s="34">
+      <c r="K9" s="31"/>
+      <c r="L9" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>1770</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="47">
         <v>750</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>1100</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <f>B10*C10/1000</f>
         <v>825</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="26">
+      <c r="E10" s="27"/>
+      <c r="F10" s="28">
         <f>LN(B10/B9)/($A10-$A9)</f>
         <v>0.00150172262262283</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="28">
         <f>LN(C10/C9)/($A10-$A9)</f>
         <v>0.000743224798007968</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <f>(F10/2+G10)</f>
         <v>0.00149408610931938</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32">
+      <c r="I10" s="29"/>
+      <c r="J10" s="30">
         <f>(D10+D9)*($A10-$A9)/2/1000</f>
         <v>172.125</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" t="s" s="34">
+      <c r="K10" s="31"/>
+      <c r="L10" t="s" s="32">
         <v>27</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>1870</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="59">
         <v>1300</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>1300</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <f>B11*C11/1000</f>
         <v>1690</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="26">
+      <c r="E11" s="27"/>
+      <c r="F11" s="28">
         <f>LN(B11/B10)/($A11-$A10)</f>
         <v>0.00550046336919272</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="28">
         <f>LN(C11/C10)/($A11-$A10)</f>
         <v>0.00167054084663166</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="31">
         <f>(F11/2+G11)</f>
         <v>0.00442077253122802</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="28">
         <v>0.00442077253122802</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32">
+      <c r="J11" s="29"/>
+      <c r="K11" s="30">
         <v>125.75</v>
       </c>
-      <c r="L11" t="s" s="34">
+      <c r="L11" t="s" s="32">
         <v>28</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>2020</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="48">
         <v>2878</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <f>C24</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <f>B12*C12/1000</f>
         <v>4880.337002077350</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="26">
+      <c r="E12" s="27"/>
+      <c r="F12" s="28">
         <f>LN(B12/B11)/($A12-$A11)</f>
         <v>0.00529820895998457</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="28">
         <f>LN(C12/C11)/($A12-$A11)</f>
         <v>0.00177169601567163</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="31">
         <f>(F12/2+G12)</f>
         <v>0.00442080049566392</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32">
+      <c r="I12" s="29"/>
+      <c r="J12" s="30">
         <f>(D12+D11)*($A12-$A11)/2/1000</f>
         <v>492.775275155801</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" t="s" s="34">
+      <c r="K12" s="31"/>
+      <c r="L12" t="s" s="32">
         <v>29</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>2100</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="48">
         <f>EXP(($A13-$A12)*$F$24)*B12</f>
         <v>5838.180636526130</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <f>C12</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <f>B13*C13/1000</f>
         <v>9900.030919127859</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="26">
+      <c r="E13" s="27"/>
+      <c r="F13" s="28">
         <f>2*(H13-G13)</f>
         <v>0.008841600991327841</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="28">
         <f>LN(C13/C12)/($A13-$A12)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="31">
         <f>H12</f>
         <v>0.00442080049566392</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>2200</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="48">
         <f>EXP(($A14-$A13)*$F$23)*B13</f>
         <v>7871.403919900190</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <f>C13</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <f>B14*C14/1000</f>
         <v>13347.8470495433</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="26">
+      <c r="E14" s="27"/>
+      <c r="F14" s="28">
         <f>2*(H14-G14)</f>
         <v>0.008841600991327841</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="28">
         <f>LN(C14/C13)/($A14-$A13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="31">
         <f>H13</f>
         <v>0.00442080049566392</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" ht="68.05" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="54"/>
-      <c r="C18" t="s" s="55">
-        <v>49</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s" s="55">
-        <v>8</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="28">
+      <c r="A18" s="37"/>
+      <c r="B18" s="49"/>
+      <c r="C18" t="s" s="50">
+        <v>55</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" t="s" s="50">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s" s="50">
+        <v>14</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="26">
         <v>1770</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="26">
         <v>1870</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <v>2018</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="26">
         <v>2100</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="26">
         <v>2200</v>
       </c>
     </row>
     <row r="19" ht="44.05" customHeight="1">
-      <c r="A19" t="s" s="56">
-        <v>52</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="27">
+      <c r="A19" t="s" s="51">
+        <v>58</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="25">
         <f>1200</f>
         <v>1200</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="57">
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="52">
         <f>$B$38*G19</f>
         <v>2e-06</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="52">
         <v>1e-06</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="56">
-        <v>53</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="27">
+      <c r="A20" t="s" s="51">
+        <v>59</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="25">
         <f>B29</f>
         <v>922.864201561407</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="26">
+      <c r="D20" s="25"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28">
         <f>$B$38*G20</f>
         <v>0.000254046684015632</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="28">
         <v>0.000127023342007816</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="56">
-        <v>54</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="27">
+      <c r="A21" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="25">
         <f>B30</f>
         <v>1009.8</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="58">
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="53">
         <f>$B$38*G21</f>
         <v>0.00122</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="53">
         <v>0.00061</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="56">
-        <v>55</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="27">
+      <c r="A22" t="s" s="51">
+        <v>61</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="25">
         <f>B31</f>
         <v>950.4</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="58">
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="53">
         <f>$B$38*G22</f>
         <v>0.00056</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="53">
         <v>0.00028</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" t="s" s="56">
-        <v>56</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="27">
+      <c r="A23" t="s" s="51">
+        <v>62</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="25">
         <f>B32</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="26">
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28">
         <f>$B$38*G23</f>
         <v>0.00298817221863876</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="28">
         <v>0.00149408610931938</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="28">
+      <c r="H23" s="31"/>
+      <c r="I23" s="26">
         <v>750</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="36">
         <f>I23*EXP($F23*(J18-I18)/2)</f>
         <v>870.860512341556</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <f>J23*EXP($F23*(K18-J18))</f>
         <v>1355.236566395420</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <f>K23*EXP($F23*(L18-K18))</f>
         <v>1731.531277937010</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="36">
         <f>L23*EXP($F23*(M18-L18))</f>
         <v>2334.559846146370</v>
       </c>
     </row>
     <row r="24" ht="32.05" customHeight="1">
-      <c r="A24" t="s" s="56">
-        <v>57</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="27">
+      <c r="A24" t="s" s="51">
+        <v>63</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="25">
         <f>B33</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="26">
+      <c r="D24" s="25"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28">
         <f>$B$38*G24</f>
         <v>0.00884154506245604</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="28">
         <v>0.00442077253122802</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28">
+      <c r="H24" s="31"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="26">
         <v>1300</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <f>J24*EXP($F24*(K18-J18)/2)</f>
         <v>2500.869819319750</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <f>K24*EXP($F24*(L18-K18))</f>
         <v>5163.658264120250</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="36">
         <f>L24*EXP($F24*(M18-L18))</f>
         <v>12500.8894834955</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="56">
-        <v>58</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="27">
+      <c r="A25" t="s" s="51">
+        <v>64</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="25">
         <f>B34</f>
         <v>4610.626979979470</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="26">
+      <c r="D25" s="25"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28">
         <f>$B$38*G25</f>
         <v>0.0412291886664386</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="28">
         <v>0.0206145943332193</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" t="s" s="37">
-        <v>59</v>
-      </c>
-      <c r="I26" s="38">
+      <c r="A26" s="37"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" t="s" s="35">
+        <v>65</v>
+      </c>
+      <c r="I26" s="36">
         <v>13363.0391183955</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="36">
         <f>I26*EXP($G23*(J18-I18))</f>
         <v>15516.4574574482</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <f>J26*EXP($G23*(K18-J18))</f>
         <v>19356.4554005704</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <f>K26*EXP($G23*(L18-K18))</f>
         <v>21879.3011570143</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="36">
         <f>L26*EXP($G23*(M18-L18))</f>
         <v>25405.0925536969</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" t="s" s="59">
-        <v>60</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" t="s" s="37">
-        <v>61</v>
-      </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="38">
+      <c r="A27" s="37"/>
+      <c r="B27" t="s" s="54">
+        <v>66</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" t="s" s="35">
+        <v>67</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="36">
         <v>23144.5005344326</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <f>J27*EXP($G24*(K18-J18))</f>
         <v>44524.140669071</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <f>K27*EXP($G24*(L18-K18))</f>
         <v>63977.7186459348</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="36">
         <f>L27*EXP($G24*(M18-L18))</f>
         <v>99545.231589372794</v>
       </c>
     </row>
     <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" t="s" s="60">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s" s="37">
-        <v>63</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" t="s" s="37">
-        <v>64</v>
-      </c>
-      <c r="I28" s="38">
+      <c r="A28" s="37"/>
+      <c r="B28" t="s" s="55">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s" s="35">
+        <v>69</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" t="s" s="35">
+        <v>70</v>
+      </c>
+      <c r="I28" s="36">
         <v>13363.0391183955</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="36">
         <v>23144.5005344326</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>764400.895818392</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="26">
         <f>K28*EXP($G25*(L18-K18))</f>
         <v>4144299.76987365</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="28">
         <f>L28*EXP($G25*(M18-L18))</f>
         <v>32563540.5330516</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="61">
+      <c r="A29" s="37"/>
+      <c r="B29" s="56">
         <f>$B$39*(C29/$B$37+1)</f>
         <v>922.864201561407</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="28">
         <f>F20</f>
         <v>0.000254046684015632</v>
       </c>
-      <c r="D29" t="s" s="37">
-        <v>65</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="D29" t="s" s="35">
+        <v>71</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="61">
+      <c r="A30" s="37"/>
+      <c r="B30" s="56">
         <f>$B$39*(C30/$B$37+1)</f>
         <v>1009.8</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="28">
         <f>F21</f>
         <v>0.00122</v>
       </c>
-      <c r="D30" t="s" s="37">
-        <v>66</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="D30" t="s" s="35">
+        <v>72</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="61">
+      <c r="A31" s="37"/>
+      <c r="B31" s="56">
         <f>$B$39*(C31/$B$37+1)</f>
         <v>950.4</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="28">
         <f>F22</f>
         <v>0.00056</v>
       </c>
-      <c r="D31" t="s" s="37">
-        <v>67</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+      <c r="D31" t="s" s="35">
+        <v>73</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="61">
+      <c r="A32" s="37"/>
+      <c r="B32" s="56">
         <f>$B$39*(C32/$B$37+1)</f>
         <v>1168.935499677490</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="28">
         <f>F23</f>
         <v>0.00298817221863876</v>
       </c>
-      <c r="D32" t="s" s="37">
-        <v>68</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="D32" t="s" s="35">
+        <v>74</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="61">
+      <c r="A33" s="37"/>
+      <c r="B33" s="56">
         <f>$B$39*(C33/$B$37+1)</f>
         <v>1695.739055621040</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="28">
         <f>F24</f>
         <v>0.00884154506245604</v>
       </c>
-      <c r="D33" t="s" s="37">
-        <v>69</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="D33" t="s" s="35">
+        <v>75</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="61">
+      <c r="A34" s="37"/>
+      <c r="B34" s="56">
         <f>$B$39*(C34/$B$37+1)</f>
         <v>4610.626979979470</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="28">
         <f>F25</f>
         <v>0.0412291886664386</v>
       </c>
-      <c r="D34" t="s" s="37">
-        <v>70</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="D34" t="s" s="35">
+        <v>76</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="56">
-        <v>71</v>
-      </c>
-      <c r="B37" s="52">
+      <c r="A37" t="s" s="51">
+        <v>77</v>
+      </c>
+      <c r="B37" s="47">
         <v>0.01</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="56">
-        <v>72</v>
-      </c>
-      <c r="B38" s="52">
+      <c r="A38" t="s" s="51">
+        <v>78</v>
+      </c>
+      <c r="B38" s="47">
         <v>2</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="56">
-        <v>73</v>
-      </c>
-      <c r="B39" s="52">
+      <c r="A39" t="s" s="51">
+        <v>79</v>
+      </c>
+      <c r="B39" s="47">
         <v>900</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8022,73 +8017,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.46094" style="65" customWidth="1"/>
-    <col min="2" max="2" width="13.4141" style="65" customWidth="1"/>
-    <col min="3" max="3" width="15.5156" style="65" customWidth="1"/>
-    <col min="4" max="5" width="11.6953" style="65" customWidth="1"/>
-    <col min="6" max="6" width="2.95312" style="65" customWidth="1"/>
-    <col min="7" max="7" width="11.1953" style="65" customWidth="1"/>
-    <col min="8" max="8" width="10.5391" style="65" customWidth="1"/>
-    <col min="9" max="9" width="8.90625" style="65" customWidth="1"/>
-    <col min="10" max="11" width="12.6484" style="65" customWidth="1"/>
-    <col min="12" max="12" width="13.2344" style="65" customWidth="1"/>
-    <col min="13" max="13" width="8.3125" style="65" customWidth="1"/>
-    <col min="14" max="14" width="77.3125" style="65" customWidth="1"/>
-    <col min="15" max="15" width="5.27344" style="65" customWidth="1"/>
-    <col min="16" max="16" width="9.16406" style="65" customWidth="1"/>
-    <col min="17" max="17" width="8.61719" style="65" customWidth="1"/>
-    <col min="18" max="16384" width="16.3516" style="65" customWidth="1"/>
+    <col min="1" max="1" width="9.46094" style="60" customWidth="1"/>
+    <col min="2" max="2" width="13.4141" style="60" customWidth="1"/>
+    <col min="3" max="3" width="15.5156" style="60" customWidth="1"/>
+    <col min="4" max="5" width="11.6953" style="60" customWidth="1"/>
+    <col min="6" max="6" width="2.95312" style="60" customWidth="1"/>
+    <col min="7" max="7" width="11.1953" style="60" customWidth="1"/>
+    <col min="8" max="8" width="10.5391" style="60" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" style="60" customWidth="1"/>
+    <col min="10" max="11" width="12.6484" style="60" customWidth="1"/>
+    <col min="12" max="12" width="13.2344" style="60" customWidth="1"/>
+    <col min="13" max="13" width="8.3125" style="60" customWidth="1"/>
+    <col min="14" max="14" width="77.3125" style="60" customWidth="1"/>
+    <col min="15" max="15" width="5.27344" style="60" customWidth="1"/>
+    <col min="16" max="16" width="9.16406" style="60" customWidth="1"/>
+    <col min="17" max="17" width="8.61719" style="60" customWidth="1"/>
+    <col min="18" max="16384" width="16.3516" style="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.3" customHeight="1">
-      <c r="A1" t="s" s="66">
-        <v>79</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
+      <c r="A1" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" ht="68.25" customHeight="1">
       <c r="A2" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="8">
         <v>11</v>
-      </c>
-      <c r="E2" t="s" s="8">
-        <v>13</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" t="s" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s" s="8">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" t="s" s="8">
@@ -8110,952 +8105,952 @@
       <c r="A3" s="11">
         <v>-68000</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <f>E3*D3/1000</f>
         <v>0.12</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>1200</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>0.1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="67">
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="61">
         <f>J4*E3/E4</f>
         <v>0.00170940170940172</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" t="s" s="21">
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>-8000</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="24">
         <f>B3*EXP(I4*($A4-$A3))</f>
         <v>5</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <f>E4*D4/1000</f>
         <v>3</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>1200</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <v>2.5</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="26">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28">
         <f>LN(E4/E3)/($A4-$A3)</f>
         <v>5.364793041447e-05</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="28">
         <f>LN(D4/D3)/($A4-$A3)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="28">
         <f>H4+G4/$F$25</f>
         <v>2.6823965207235e-05</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="62">
         <f>J5*E4/E5</f>
         <v>0.0427350427350429</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32">
+      <c r="K4" s="29"/>
+      <c r="L4" s="30">
         <f>(C4+C3)*($A4-$A3)/2/1000</f>
         <v>93.59999999999999</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" t="s" s="34">
+      <c r="M4" s="31"/>
+      <c r="N4" t="s" s="32">
         <v>20</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36">
+      <c r="O4" s="33"/>
+      <c r="P4" s="34">
         <f>LN(2)/G4</f>
         <v>12920.2967422018</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="34">
         <f>LN(2)/I4</f>
         <v>25840.5934844036</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>-6000</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="24">
         <f>B4*EXP(I5*($A5-$A4))</f>
         <v>6.27495019900558</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <f>E5*D5/1000</f>
         <v>6.3</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>900</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>7</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="26">
+      <c r="F5" s="27"/>
+      <c r="G5" s="28">
         <f>LN(E5/E4)/($A5-$A4)</f>
         <v>0.000514809708590579</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="28">
         <f>LN(D5/D4)/($A5-$A4)</f>
         <v>-0.00014384103622589</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="28">
         <f>H5+G5/$F$25</f>
         <v>0.0001135638180694</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="63">
         <f>J6*E5/E6*0.2</f>
         <v>0.11965811965812</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32">
+      <c r="K5" s="29"/>
+      <c r="L5" s="30">
         <f>(C5+C4)*($A5-$A4)/2/1000</f>
         <v>9.300000000000001</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" t="s" s="34">
+      <c r="M5" s="31"/>
+      <c r="N5" t="s" s="32">
         <v>21</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="36">
+      <c r="O5" s="27"/>
+      <c r="P5" s="34">
         <f>LN(2)/G5</f>
         <v>1346.414352708320</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="34">
         <f>LN(2)/I5</f>
         <v>6103.591727924790</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>-3000</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="24">
         <f>B5*EXP(I6*($A6-$A5))</f>
         <v>9.185586535436929</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <f>E6*D6/1000</f>
         <v>13.5</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>900</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <v>15</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="26">
+      <c r="F6" s="27"/>
+      <c r="G6" s="28">
         <f>LN(E6/E5)/($A6-$A5)</f>
         <v>0.000254046684015632</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="28">
         <f>LN(D6/D5)/($A6-$A5)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="28">
         <f>H6+G6/$F$25</f>
         <v>0.000127023342007816</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="63">
         <f>J7*E6/E7</f>
         <v>1.28205128205129</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32">
+      <c r="K6" s="29"/>
+      <c r="L6" s="30">
         <f>(C6+C4)*($A6-$A4)/2/1000</f>
         <v>41.25</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" t="s" s="37">
+      <c r="M6" s="31"/>
+      <c r="N6" t="s" s="35">
         <v>22</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="36">
+      <c r="O6" s="27"/>
+      <c r="P6" s="34">
         <f>LN(2)/G6</f>
         <v>2728.424436027260</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="34">
         <f>LN(2)/I6</f>
         <v>5456.848872054510</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>-1000</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="24">
         <f>B6*EXP(I7*($A7-$A6))</f>
         <v>16.7705098312484</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <f>E7*D7/1000</f>
         <v>45</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <f>D6</f>
         <v>900</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>50</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="26">
+      <c r="F7" s="27"/>
+      <c r="G7" s="28">
         <f>LN(E7/E6)/($A7-$A6)</f>
         <v>0.000601986402162968</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="28">
         <f>LN(D7/D6)/($A7-$A6)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="28">
         <f>H7+G7/$F$25</f>
         <v>0.000300993201081484</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="63">
         <f>J8*E7/E8</f>
         <v>4.27350427350429</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32">
+      <c r="K7" s="29"/>
+      <c r="L7" s="30">
         <f>(C7+C6)*($A7-$A6)/2/1000</f>
         <v>58.5</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" t="s" s="37">
+      <c r="M7" s="31"/>
+      <c r="N7" t="s" s="35">
         <v>23</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="36">
+      <c r="O7" s="27"/>
+      <c r="P7" s="34">
         <f>LN(2)/G7</f>
         <v>1151.433284986890</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="34">
         <f>LN(2)/I7</f>
         <v>2302.866569973780</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>0</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="24">
         <f>B7*EXP(I8*($A8-$A7))</f>
         <v>30.9232921921325</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <f>E8*D8/1000</f>
         <v>153</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <f>D7</f>
         <v>900</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>170</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="26">
+      <c r="F8" s="27"/>
+      <c r="G8" s="28">
         <f>LN(E8/E7)/($A8-$A7)</f>
         <v>0.00122377543162212</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="28">
         <f>LN(D8/D7)/($A8-$A7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="28">
         <f>H8+G8/$F$25</f>
         <v>0.00061188771581106</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="36">
         <f>J9*E8/E9</f>
         <v>14.5299145299146</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32">
+      <c r="K8" s="29"/>
+      <c r="L8" s="30">
         <f>(C8+C7)*($A8-$A7)/2/1000</f>
         <v>99</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" t="s" s="34">
+      <c r="M8" s="31"/>
+      <c r="N8" t="s" s="32">
         <v>24</v>
       </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="36">
+      <c r="O8" s="33"/>
+      <c r="P8" s="34">
         <f>LN(2)/G8</f>
         <v>566.4006341761381</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="34">
         <f>LN(2)/I8</f>
         <v>1132.801268352280</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>800</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="24">
         <f>B8*EXP(I9*($A9-$A8))</f>
         <v>41.0791918128875</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <f>E9*D9/1000</f>
         <v>270</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <f>D8</f>
         <v>900</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <v>300</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="26">
+      <c r="F9" s="27"/>
+      <c r="G9" s="28">
         <f>LN(E9/E8)/($A9-$A8)</f>
         <v>0.000709980047007424</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="28">
         <f>LN(D9/D8)/($A9-$A8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="28">
         <f>H9+G9/$F$25</f>
         <v>0.000354990023503712</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="36">
         <f>J10*E9/E10*0.3</f>
         <v>25.6410256410257</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32">
+      <c r="K9" s="29"/>
+      <c r="L9" s="30">
         <f>(C9+C8)*($A9-$A8)/2/1000</f>
         <v>169.2</v>
       </c>
-      <c r="M9" s="33"/>
-      <c r="N9" t="s" s="34">
+      <c r="M9" s="31"/>
+      <c r="N9" t="s" s="32">
         <v>25</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="36">
+      <c r="O9" s="33"/>
+      <c r="P9" s="34">
         <f>LN(2)/G9</f>
         <v>976.291071110478</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="34">
         <f>LN(2)/I9</f>
         <v>1952.582142220960</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>1500</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="24">
         <f>B9*EXP(I10*($A10-$A9))</f>
         <v>53.0330085889911</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <f>E10*D10/1000</f>
         <v>450</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <f>D9</f>
         <v>900</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>500</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="26">
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
         <f>LN(E10/E9)/($A10-$A9)</f>
         <v>0.000729750891094272</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="28">
         <f>LN(D10/D9)/($A10-$A9)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="28">
         <f>H10+G10/$F$25</f>
         <v>0.000364875445547136</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <f>J11*2/3*2/3</f>
         <v>142.450142450143</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32">
+      <c r="K10" s="29"/>
+      <c r="L10" s="30">
         <f>(C10+C9)*($A10-$A9)/2/1000</f>
         <v>252</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" t="s" s="34">
+      <c r="M10" s="31"/>
+      <c r="N10" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="36">
+      <c r="O10" s="33"/>
+      <c r="P10" s="34">
         <f>LN(2)/G10</f>
         <v>949.840814199707</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="34">
         <f>LN(2)/I10</f>
         <v>1899.681628399410</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>1770</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="24">
         <f>B10*EXP(I11*($A11-$A10))</f>
         <v>79.38566201357349</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <f>E11*D11/1000</f>
         <v>825</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="25">
         <v>1100</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>750</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="26">
+      <c r="F11" s="27"/>
+      <c r="G11" s="28">
         <f>LN(E11/E10)/($A11-$A10)</f>
         <v>0.00150172262262283</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="28">
         <f>LN(D11/D10)/($A11-$A10)</f>
         <v>0.000743224798007968</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="28">
         <f>H11+G11/$F$25</f>
         <v>0.00149408610931938</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="36">
         <f>J12*15/26/3</f>
         <v>320.512820512821</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32">
+      <c r="K11" s="29"/>
+      <c r="L11" s="30">
         <f>(C11+C10)*($A11-$A10)/2/1000</f>
         <v>172.125</v>
       </c>
-      <c r="M11" s="33"/>
-      <c r="N11" t="s" s="34">
+      <c r="M11" s="31"/>
+      <c r="N11" t="s" s="32">
         <v>27</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36">
+      <c r="O11" s="33"/>
+      <c r="P11" s="34">
         <f>LN(2)/G11</f>
         <v>461.568048664893</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="34">
         <f>LN(2)/I11</f>
         <v>463.927196857284</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>1870</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="24">
         <f>B11*EXP(I12*($A12-$A11))</f>
         <v>123.519004385740</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <f>E12*D12/1000</f>
         <v>1690</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>1300</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <v>1300</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="26">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
         <f>LN(E12/E11)/($A12-$A11)</f>
         <v>0.00550046336919272</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="28">
         <f>LN(D12/D11)/($A12-$A11)</f>
         <v>0.00167054084663166</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="28">
         <f>H12+G12/$F$25</f>
         <v>0.00442077253122802</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <f>J13/60</f>
         <v>1666.666666666670</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32">
+      <c r="K12" s="29"/>
+      <c r="L12" s="30">
         <f>(C12+C11)*($A12-$A11)/2/1000</f>
         <v>125.75</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" t="s" s="34">
+      <c r="M12" s="31"/>
+      <c r="N12" t="s" s="32">
         <v>28</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="36">
+      <c r="O12" s="33"/>
+      <c r="P12" s="34">
         <f>LN(2)/G12</f>
         <v>126.016143374785</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="34">
         <f>LN(2)/I12</f>
         <v>156.793224637459</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>2020</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="24">
         <f>B12*EXP(I13*($A13-$A12))</f>
         <v>2720.535937912570</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>90000</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <f>C13/E13*1000</f>
         <v>11842.1052631579</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>7600</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="26">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28">
         <f>LN(E13/E12)/($A13-$A12)</f>
         <v>0.011771893218832</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="28">
         <f>LN(D13/D12)/($A13-$A12)</f>
         <v>0.0147286477238033</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="28">
         <f>H13+G13/$F$25</f>
         <v>0.0206145943332193</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>100000</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32">
+      <c r="K13" s="29"/>
+      <c r="L13" s="30">
         <f>(C13+C12)*($A13-$A12)/2/1000</f>
         <v>6876.75</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" t="s" s="34">
+      <c r="M13" s="31"/>
+      <c r="N13" t="s" s="32">
         <v>29</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="36">
+      <c r="O13" s="33"/>
+      <c r="P13" s="34">
         <f>LN(2)/G13</f>
         <v>58.8815382262462</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="34">
         <f>LN(2)/I13</f>
         <v>33.6240999631497</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>2100</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="24">
         <f>EXP(I14*($A14-$A13))*B13</f>
         <v>13474.9027122131</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <f>E14*D14/1000</f>
         <v>485096.497639668</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="25">
         <f>D13*EXP(H14*($A14-$A13))</f>
         <v>53899.610848852</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <v>9000</v>
       </c>
-      <c r="F14" t="s" s="37">
+      <c r="F14" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="28">
         <f>LN(E14/E13)/($A14-$A13)</f>
         <v>0.00211345412554917</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="28">
         <f>I14-G14/$F$25</f>
         <v>0.0189432729372254</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="28">
         <v>0.02</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32">
+      <c r="J14" s="36"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30">
         <f>(C14+C13)*($A14-$A13)/2/1000</f>
         <v>23003.8599055867</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" t="s" s="34">
+      <c r="M14" s="31"/>
+      <c r="N14" t="s" s="32">
         <v>31</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>2200</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="24">
         <f>EXP(I15*($A15-$A14))*B14</f>
         <v>99566.812068175394</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <f>E15*D15/1000</f>
         <v>3584405.23445429</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <f>D14*EXP(H15*($A15-$A14))</f>
         <v>398267.248272699</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="26">
         <v>9000</v>
       </c>
-      <c r="F15" t="s" s="37">
+      <c r="F15" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="28">
         <f>LN(E15/E14)/($A15-$A14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="28">
         <f>I15-G15/$F$25</f>
         <v>0.02</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="28">
         <v>0.02</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32">
+      <c r="J15" s="36"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30">
         <f>(C15+C14)*($A15-$A14)/2/1000</f>
         <v>203475.086604698</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>2500</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="24">
         <f>EXP(I16*($A16-$A15))*B15</f>
         <v>40168118.8645819</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="25">
         <f>E16*D16/1000</f>
         <v>1446052279.12494</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="25">
         <f>D15*EXP(H16*($A16-$A15))</f>
         <v>160672475.458327</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
         <v>9000</v>
       </c>
-      <c r="F16" t="s" s="37">
+      <c r="F16" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="28">
         <f>LN(E16/E15)/($A16-$A15)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="28">
         <f>I16-G16/$F$25</f>
         <v>0.02</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="28">
         <v>0.02</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32">
+      <c r="J16" s="36"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30">
         <f>(C16+C15)*($A16-$A15)/2/1000</f>
         <v>217445502.653909</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="48"/>
-      <c r="C20" t="s" s="37">
-        <v>32</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" t="s" s="35">
+        <v>47</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26">
         <f>F21^(4/3)</f>
         <v>1574.901312368590</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="48"/>
-      <c r="C21" t="s" s="37">
-        <v>33</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" t="s" s="35">
+        <v>48</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26">
         <v>250</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="48"/>
-      <c r="C22" t="s" s="37">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" t="s" s="35">
         <v>34</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28">
-        <v>1</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="48"/>
-      <c r="C23" t="s" s="37">
-        <v>35</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="28">
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26">
         <v>4</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="48"/>
-      <c r="C24" t="s" s="37">
-        <v>36</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26">
         <v>0.5</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="48"/>
-      <c r="C25" t="s" s="37">
-        <v>37</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="28">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" t="s" s="35">
+        <v>50</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26">
         <v>2</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" ht="23" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" t="s" s="41">
-        <v>45</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" t="s" s="39">
+        <v>51</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
